--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5509,7 +5509,9 @@
       <c r="C116" t="n">
         <v>0.13</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.82</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -5520,7 +5522,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.61</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -10553,7 +10555,9 @@
       <c r="C116" t="n">
         <v>1.34</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.26</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -10564,7 +10568,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.08</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -15679,7 +15683,9 @@
       <c r="C116" t="n">
         <v>1.18</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.21</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -15690,7 +15696,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>
@@ -20805,7 +20811,9 @@
       <c r="C116" t="n">
         <v>1.47</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.13</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -20816,7 +20824,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.42</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -25837,7 +25845,9 @@
       <c r="C116" t="n">
         <v>1.16</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.17</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -25848,7 +25858,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.73</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -30963,7 +30973,9 @@
       <c r="C116" t="n">
         <v>1.49</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.48</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -30974,7 +30986,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>
@@ -36089,7 +36101,9 @@
       <c r="C116" t="n">
         <v>2.13</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.5</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -36100,7 +36114,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>2.08</v>
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>
@@ -41215,7 +41229,9 @@
       <c r="C116" t="n">
         <v>1.271904761904762</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.02597701149425369</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -41226,7 +41242,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.34</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -46341,7 +46357,9 @@
       <c r="C116" t="n">
         <v>1.27</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.03</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -46352,7 +46370,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.34</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5512,7 +5512,9 @@
       <c r="D116" t="n">
         <v>-0.82</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.65</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -5522,7 +5524,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.13</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -10558,7 +10560,9 @@
       <c r="D116" t="n">
         <v>-0.26</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.98</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -10568,7 +10572,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.63</v>
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
@@ -15686,7 +15690,9 @@
       <c r="D116" t="n">
         <v>0.21</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.7</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -20814,7 +20820,9 @@
       <c r="D116" t="n">
         <v>-0.13</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.19</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -20824,7 +20832,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
@@ -25848,7 +25856,9 @@
       <c r="D116" t="n">
         <v>-0.17</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.64</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -25858,7 +25868,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.1</v>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
@@ -30976,7 +30986,9 @@
       <c r="D116" t="n">
         <v>0.48</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>2.19</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -30986,7 +30998,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
@@ -36104,7 +36116,9 @@
       <c r="D116" t="n">
         <v>0.5</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.31</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -36114,7 +36128,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -41232,7 +41246,9 @@
       <c r="D116" t="n">
         <v>-0.02597701149425369</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.380476190476191</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -41242,7 +41258,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.88</v>
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
@@ -46360,7 +46376,9 @@
       <c r="D116" t="n">
         <v>-0.03</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.38</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -46370,7 +46388,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5524,13 +5524,15 @@
       <c r="H116" t="n">
         <v>1.45</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-1.43</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -10578,13 +10580,15 @@
       <c r="H116" t="n">
         <v>0.05</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-1.31</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -15714,13 +15718,15 @@
       <c r="H116" t="n">
         <v>-0.16</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.9</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -20850,13 +20856,15 @@
       <c r="H116" t="n">
         <v>1.54</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-1.04</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -25892,13 +25900,15 @@
       <c r="H116" t="n">
         <v>1.37</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-1.22</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.23</v>
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -31028,13 +31038,15 @@
       <c r="H116" t="n">
         <v>1.11</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.59</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>
@@ -36164,13 +36176,15 @@
       <c r="H116" t="n">
         <v>2.38</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.01</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>
@@ -41300,13 +41314,15 @@
       <c r="H116" t="n">
         <v>1.105380952380952</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.9293809523809526</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.27</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -46436,13 +46452,15 @@
       <c r="H116" t="n">
         <v>1.11</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.93</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.27</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5527,12 +5527,14 @@
       <c r="I116" t="n">
         <v>-1.43</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.95</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -10583,12 +10585,14 @@
       <c r="I116" t="n">
         <v>-1.31</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2.28</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
@@ -15721,12 +15725,14 @@
       <c r="I116" t="n">
         <v>-0.9</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.18</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -20859,12 +20865,14 @@
       <c r="I116" t="n">
         <v>-1.04</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.47</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>
@@ -25903,7 +25911,9 @@
       <c r="I116" t="n">
         <v>-1.22</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.9</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
@@ -31041,12 +31051,14 @@
       <c r="I116" t="n">
         <v>-0.59</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.51</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>
@@ -36179,12 +36191,14 @@
       <c r="I116" t="n">
         <v>-0.01</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.09</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
@@ -41317,12 +41331,14 @@
       <c r="I116" t="n">
         <v>-0.9293809523809526</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.341857142857143</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
@@ -46455,12 +46471,14 @@
       <c r="I116" t="n">
         <v>-0.93</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.34</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5530,11 +5530,13 @@
       <c r="J116" t="n">
         <v>0.95</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.63</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10588,11 +10590,13 @@
       <c r="J116" t="n">
         <v>2.28</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>-0.1</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -15728,11 +15732,13 @@
       <c r="J116" t="n">
         <v>1.18</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>-0.08</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -20868,11 +20874,13 @@
       <c r="J116" t="n">
         <v>1.47</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.15</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
@@ -25914,11 +25922,13 @@
       <c r="J116" t="n">
         <v>0.9</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>-0.93</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -31054,11 +31064,13 @@
       <c r="J116" t="n">
         <v>1.51</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.12</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
@@ -36194,11 +36206,13 @@
       <c r="J116" t="n">
         <v>1.09</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.1</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>
@@ -41334,11 +41348,13 @@
       <c r="J116" t="n">
         <v>1.341857142857143</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>-0.0165238095238098</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -46474,11 +46490,13 @@
       <c r="J116" t="n">
         <v>1.34</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>-0.02</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5533,10 +5533,12 @@
       <c r="K116" t="n">
         <v>0.63</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.4</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
@@ -10593,7 +10595,9 @@
       <c r="K116" t="n">
         <v>-0.1</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.82</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
         <v>0.88</v>
@@ -15735,10 +15739,12 @@
       <c r="K116" t="n">
         <v>-0.08</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.65</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -20877,10 +20883,12 @@
       <c r="K116" t="n">
         <v>0.15</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.39</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
@@ -25925,10 +25933,12 @@
       <c r="K116" t="n">
         <v>-0.93</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.29</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -31067,10 +31077,12 @@
       <c r="K116" t="n">
         <v>0.12</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.41</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
@@ -36209,10 +36221,12 @@
       <c r="K116" t="n">
         <v>0.1</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.39</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -41351,10 +41365,12 @@
       <c r="K116" t="n">
         <v>-0.0165238095238098</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.4791428571428576</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
@@ -46493,10 +46509,12 @@
       <c r="K116" t="n">
         <v>-0.02</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.48</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5536,10 +5536,30 @@
       <c r="L116" t="n">
         <v>0.4</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.31</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.54</v>
-      </c>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5552,7 +5572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10598,10 +10618,30 @@
       <c r="L116" t="n">
         <v>0.82</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.82</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.88</v>
-      </c>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10614,7 +10654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15742,10 +15782,30 @@
       <c r="L116" t="n">
         <v>0.65</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.78</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.57</v>
-      </c>
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15758,7 +15818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20886,10 +20946,30 @@
       <c r="L116" t="n">
         <v>0.39</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.93</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.98</v>
-      </c>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20902,7 +20982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25936,10 +26016,30 @@
       <c r="L116" t="n">
         <v>0.29</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.32</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.6899999999999999</v>
-      </c>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25952,7 +26052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31080,10 +31180,30 @@
       <c r="L116" t="n">
         <v>0.41</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.44</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.32</v>
-      </c>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31096,7 +31216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36224,10 +36344,30 @@
       <c r="L116" t="n">
         <v>0.39</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.75</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.25</v>
-      </c>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36240,7 +36380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41368,10 +41508,30 @@
       <c r="L116" t="n">
         <v>0.4791428571428576</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.336523809523808</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.89</v>
-      </c>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41384,7 +41544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46512,10 +46672,30 @@
       <c r="L116" t="n">
         <v>0.48</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.34</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.89</v>
-      </c>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5547,7 +5547,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.39</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -5559,7 +5561,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10629,7 +10633,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.32</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -10641,7 +10647,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15793,7 +15801,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.24</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -15805,7 +15815,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20957,7 +20969,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>0.96</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -20969,7 +20983,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>0.96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26027,7 +26043,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>0.4</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -26039,7 +26057,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31191,7 +31211,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.26</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -31203,7 +31225,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36355,7 +36379,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>0.44</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -36367,7 +36393,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>0.44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41519,7 +41547,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.002380952380953</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -41531,7 +41561,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46683,7 +46715,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -46695,7 +46729,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5550,7 +5550,9 @@
       <c r="B117" t="n">
         <v>1.39</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.57</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -5562,7 +5564,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.39</v>
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
@@ -10636,7 +10638,9 @@
       <c r="B117" t="n">
         <v>1.32</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.46</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -10648,7 +10652,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.32</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -15804,7 +15808,9 @@
       <c r="B117" t="n">
         <v>1.24</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.28</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -15816,7 +15822,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.24</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -20972,7 +20978,9 @@
       <c r="B117" t="n">
         <v>0.96</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.23</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -20984,7 +20992,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.96</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -26046,7 +26054,9 @@
       <c r="B117" t="n">
         <v>0.4</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-1.74</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -26058,7 +26068,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.4</v>
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -31214,7 +31224,9 @@
       <c r="B117" t="n">
         <v>1.26</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.51</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -31226,7 +31238,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.26</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -36382,7 +36394,9 @@
       <c r="B117" t="n">
         <v>0.44</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.13</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -36394,7 +36408,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -41550,7 +41564,9 @@
       <c r="B117" t="n">
         <v>1.002380952380953</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.4423809523809525</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -41562,7 +41578,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -46718,7 +46734,9 @@
       <c r="B117" t="n">
         <v>1</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.44</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -46730,7 +46748,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5553,7 +5553,9 @@
       <c r="C117" t="n">
         <v>-0.57</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.92</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -5564,7 +5566,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.41</v>
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -10641,7 +10643,9 @@
       <c r="C117" t="n">
         <v>-0.46</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.56</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -10652,7 +10656,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.43</v>
+        <v>-0.23</v>
       </c>
     </row>
   </sheetData>
@@ -15811,7 +15815,9 @@
       <c r="C117" t="n">
         <v>0.28</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.79</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -15822,7 +15828,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.76</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -20981,7 +20987,9 @@
       <c r="C117" t="n">
         <v>-0.23</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.03</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -20992,7 +21000,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.36</v>
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
@@ -26057,7 +26065,9 @@
       <c r="C117" t="n">
         <v>-1.74</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.37</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -26068,7 +26078,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.67</v>
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -31227,7 +31237,9 @@
       <c r="C117" t="n">
         <v>-0.51</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.22</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -31238,7 +31250,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.38</v>
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -36397,7 +36409,9 @@
       <c r="C117" t="n">
         <v>0.13</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -36408,7 +36422,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.29</v>
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -41567,7 +41581,9 @@
       <c r="C117" t="n">
         <v>-0.4423809523809525</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.125977011494254</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -41578,7 +41594,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -46737,7 +46753,9 @@
       <c r="C117" t="n">
         <v>-0.44</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.13</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -46748,7 +46766,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -562,7 +562,7 @@
         <v>-1.16</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.68</v>
       </c>
       <c r="M3" t="n">
         <v>-2.28</v>
@@ -606,7 +606,7 @@
         <v>-2.37</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.69</v>
+        <v>-2.68</v>
       </c>
       <c r="M4" t="n">
         <v>-4.28</v>
@@ -826,13 +826,13 @@
         <v>-0.87</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.49</v>
+        <v>-0.48</v>
       </c>
       <c r="M9" t="n">
         <v>-0.58</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.38</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="10">
@@ -958,7 +958,7 @@
         <v>-3.07</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.69</v>
+        <v>-4.68</v>
       </c>
       <c r="M12" t="n">
         <v>-3.68</v>
@@ -1002,7 +1002,7 @@
         <v>-1.37</v>
       </c>
       <c r="L13" t="n">
-        <v>-2.09</v>
+        <v>-2.08</v>
       </c>
       <c r="M13" t="n">
         <v>-2.18</v>
@@ -1090,7 +1090,7 @@
         <v>-0.37</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.59</v>
+        <v>-1.58</v>
       </c>
       <c r="M15" t="n">
         <v>-1.58</v>
@@ -1134,7 +1134,7 @@
         <v>-1.26</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.29</v>
+        <v>-0.28</v>
       </c>
       <c r="M16" t="n">
         <v>-0.48</v>
@@ -1178,7 +1178,7 @@
         <v>-1.07</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.79</v>
+        <v>-0.78</v>
       </c>
       <c r="M17" t="n">
         <v>-2.58</v>
@@ -1354,7 +1354,7 @@
         <v>-1.57</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="M21" t="n">
         <v>-1.98</v>
@@ -1398,7 +1398,7 @@
         <v>-1.47</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.29</v>
+        <v>-0.28</v>
       </c>
       <c r="M22" t="n">
         <v>-1.58</v>
@@ -1530,7 +1530,7 @@
         <v>-0.26</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.69</v>
+        <v>-1.68</v>
       </c>
       <c r="M25" t="n">
         <v>-1.98</v>
@@ -1574,7 +1574,7 @@
         <v>-1.87</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.49</v>
+        <v>-1.48</v>
       </c>
       <c r="M26" t="n">
         <v>-1.78</v>
@@ -1750,7 +1750,7 @@
         <v>-2.16</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.99</v>
+        <v>-0.98</v>
       </c>
       <c r="M30" t="n">
         <v>-0.28</v>
@@ -1794,7 +1794,7 @@
         <v>-1.26</v>
       </c>
       <c r="L31" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="M31" t="n">
         <v>-2.18</v>
@@ -1838,7 +1838,7 @@
         <v>-2.26</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.49</v>
+        <v>-1.48</v>
       </c>
       <c r="M32" t="n">
         <v>-1.98</v>
@@ -1882,7 +1882,7 @@
         <v>-1.87</v>
       </c>
       <c r="L33" t="n">
-        <v>-2.69</v>
+        <v>-2.68</v>
       </c>
       <c r="M33" t="n">
         <v>-1.18</v>
@@ -1926,7 +1926,7 @@
         <v>-2.26</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.09</v>
+        <v>-2.08</v>
       </c>
       <c r="M34" t="n">
         <v>-1.68</v>
@@ -1970,7 +1970,7 @@
         <v>-0.76</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.59</v>
+        <v>-1.58</v>
       </c>
       <c r="M35" t="n">
         <v>-2.28</v>
@@ -2102,7 +2102,7 @@
         <v>-2.76</v>
       </c>
       <c r="L38" t="n">
-        <v>-1.59</v>
+        <v>-1.58</v>
       </c>
       <c r="M38" t="n">
         <v>-3.88</v>
@@ -2146,7 +2146,7 @@
         <v>-1.87</v>
       </c>
       <c r="L39" t="n">
-        <v>-3.59</v>
+        <v>-3.58</v>
       </c>
       <c r="M39" t="n">
         <v>-3.08</v>
@@ -2234,7 +2234,7 @@
         <v>-1.07</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.49</v>
+        <v>-1.48</v>
       </c>
       <c r="M41" t="n">
         <v>-2.28</v>
@@ -2322,7 +2322,7 @@
         <v>-0.57</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.29</v>
+        <v>-0.28</v>
       </c>
       <c r="M43" t="n">
         <v>-1.18</v>
@@ -2366,7 +2366,7 @@
         <v>-1</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.03</v>
+        <v>-1.02</v>
       </c>
       <c r="M44" t="n">
         <v>-2.72</v>
@@ -2542,7 +2542,7 @@
         <v>-0</v>
       </c>
       <c r="L48" t="n">
-        <v>-1.33</v>
+        <v>-1.32</v>
       </c>
       <c r="M48" t="n">
         <v>-0.62</v>
@@ -2586,7 +2586,7 @@
         <v>-0.31</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.83</v>
+        <v>-0.82</v>
       </c>
       <c r="M49" t="n">
         <v>-2.02</v>
@@ -2630,7 +2630,7 @@
         <v>-2</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.03</v>
+        <v>-1.02</v>
       </c>
       <c r="M50" t="n">
         <v>-3.02</v>
@@ -2674,7 +2674,7 @@
         <v>0.79</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.43</v>
+        <v>-0.42</v>
       </c>
       <c r="M51" t="n">
         <v>-0.02</v>
@@ -2718,7 +2718,7 @@
         <v>-1.21</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.83</v>
+        <v>-0.82</v>
       </c>
       <c r="M52" t="n">
         <v>-0.22</v>
@@ -2762,7 +2762,7 @@
         <v>-0.5</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.03</v>
+        <v>-1.02</v>
       </c>
       <c r="M53" t="n">
         <v>-2.92</v>
@@ -2806,7 +2806,7 @@
         <v>-0</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.83</v>
+        <v>-0.82</v>
       </c>
       <c r="M54" t="n">
         <v>-0.12</v>
@@ -2894,7 +2894,7 @@
         <v>-0.9</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.83</v>
+        <v>-1.82</v>
       </c>
       <c r="M56" t="n">
         <v>-2.12</v>
@@ -2938,7 +2938,7 @@
         <v>-1.31</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.43</v>
+        <v>-1.42</v>
       </c>
       <c r="M57" t="n">
         <v>-1.02</v>
@@ -2982,13 +2982,13 @@
         <v>-1.9</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.53</v>
+        <v>-1.52</v>
       </c>
       <c r="M58" t="n">
         <v>-1.82</v>
       </c>
       <c r="N58" t="n">
-        <v>-1.41</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="59">
@@ -3070,7 +3070,7 @@
         <v>0.19</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="M60" t="n">
         <v>-0.62</v>
@@ -3114,13 +3114,13 @@
         <v>-1.6</v>
       </c>
       <c r="L61" t="n">
-        <v>-2.03</v>
+        <v>-2.02</v>
       </c>
       <c r="M61" t="n">
         <v>-1.92</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="62">
@@ -3158,7 +3158,7 @@
         <v>-1.5</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
       <c r="M62" t="n">
         <v>0.58</v>
@@ -3202,7 +3202,7 @@
         <v>0.29</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.53</v>
+        <v>-0.52</v>
       </c>
       <c r="M63" t="n">
         <v>-0.22</v>
@@ -3290,7 +3290,7 @@
         <v>-0.31</v>
       </c>
       <c r="L65" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M65" t="n">
         <v>-1.62</v>
@@ -3334,7 +3334,7 @@
         <v>-0.1</v>
       </c>
       <c r="L66" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="M66" t="n">
         <v>-0.42</v>
@@ -3378,7 +3378,7 @@
         <v>-0.21</v>
       </c>
       <c r="L67" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="M67" t="n">
         <v>0.38</v>
@@ -3422,7 +3422,7 @@
         <v>0.29</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.83</v>
+        <v>-0.82</v>
       </c>
       <c r="M68" t="n">
         <v>-1.82</v>
@@ -3466,7 +3466,7 @@
         <v>-0.62</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.25</v>
+        <v>-1.24</v>
       </c>
       <c r="M69" t="n">
         <v>-0.84</v>
@@ -3510,7 +3510,7 @@
         <v>-0.52</v>
       </c>
       <c r="L70" t="n">
-        <v>-1.15</v>
+        <v>-1.14</v>
       </c>
       <c r="M70" t="n">
         <v>-2.14</v>
@@ -3554,7 +3554,7 @@
         <v>-2.02</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="M71" t="n">
         <v>-0.64</v>
@@ -3598,7 +3598,7 @@
         <v>0.48</v>
       </c>
       <c r="L72" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="M72" t="n">
         <v>-0.64</v>
@@ -3686,7 +3686,7 @@
         <v>-0.62</v>
       </c>
       <c r="L74" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="M74" t="n">
         <v>1.06</v>
@@ -3730,13 +3730,13 @@
         <v>-1.12</v>
       </c>
       <c r="L75" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M75" t="n">
         <v>-1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>-1.18</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="76">
@@ -3774,7 +3774,7 @@
         <v>0.98</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.95</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="M76" t="n">
         <v>-0.84</v>
@@ -3818,7 +3818,7 @@
         <v>-0.92</v>
       </c>
       <c r="L77" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M77" t="n">
         <v>0.66</v>
@@ -3862,7 +3862,7 @@
         <v>-1.62</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="M78" t="n">
         <v>0.5600000000000001</v>
@@ -3906,7 +3906,7 @@
         <v>0.28</v>
       </c>
       <c r="L79" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="M79" t="n">
         <v>-1.14</v>
@@ -3950,7 +3950,7 @@
         <v>0.88</v>
       </c>
       <c r="L80" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="M80" t="n">
         <v>0.06</v>
@@ -4038,7 +4038,7 @@
         <v>1.48</v>
       </c>
       <c r="L82" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="M82" t="n">
         <v>-0.74</v>
@@ -4082,7 +4082,7 @@
         <v>0.67</v>
       </c>
       <c r="L83" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="M83" t="n">
         <v>0.66</v>
@@ -4126,7 +4126,7 @@
         <v>-0.22</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.85</v>
+        <v>-0.84</v>
       </c>
       <c r="M84" t="n">
         <v>-0.84</v>
@@ -4214,7 +4214,7 @@
         <v>-0.52</v>
       </c>
       <c r="L86" t="n">
-        <v>-1.25</v>
+        <v>-1.24</v>
       </c>
       <c r="M86" t="n">
         <v>-0.9399999999999999</v>
@@ -4258,7 +4258,7 @@
         <v>-0.92</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="M87" t="n">
         <v>-0.34</v>
@@ -4302,7 +4302,7 @@
         <v>0.48</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.85</v>
+        <v>-0.84</v>
       </c>
       <c r="M88" t="n">
         <v>1.06</v>
@@ -4346,7 +4346,7 @@
         <v>-0.02</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="M89" t="n">
         <v>-1.04</v>
@@ -4390,13 +4390,13 @@
         <v>0.17</v>
       </c>
       <c r="L90" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M90" t="n">
         <v>-1.14</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.63</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="91">
@@ -4434,7 +4434,7 @@
         <v>1.42</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="M91" t="n">
         <v>0.21</v>
@@ -4478,7 +4478,7 @@
         <v>0.42</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="M92" t="n">
         <v>-0.79</v>
@@ -4522,7 +4522,7 @@
         <v>0.23</v>
       </c>
       <c r="L93" t="n">
-        <v>-1.2</v>
+        <v>-1.19</v>
       </c>
       <c r="M93" t="n">
         <v>0.71</v>
@@ -4566,7 +4566,7 @@
         <v>1.73</v>
       </c>
       <c r="L94" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="M94" t="n">
         <v>1.51</v>
@@ -4610,7 +4610,7 @@
         <v>-1.47</v>
       </c>
       <c r="L95" t="n">
-        <v>-1.2</v>
+        <v>-1.19</v>
       </c>
       <c r="M95" t="n">
         <v>-0.29</v>
@@ -4654,13 +4654,13 @@
         <v>-1.17</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="M96" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="N96" t="n">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="97">
@@ -4698,7 +4698,7 @@
         <v>0.23</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="M97" t="n">
         <v>-2.29</v>
@@ -4742,13 +4742,13 @@
         <v>0.12</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="M98" t="n">
         <v>1.21</v>
       </c>
       <c r="N98" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="99">
@@ -4786,13 +4786,13 @@
         <v>0.12</v>
       </c>
       <c r="L99" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="M99" t="n">
         <v>-2.29</v>
       </c>
       <c r="N99" t="n">
-        <v>-0.33</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="100">
@@ -4830,7 +4830,7 @@
         <v>-0.38</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.6</v>
+        <v>-0.59</v>
       </c>
       <c r="M100" t="n">
         <v>0.31</v>
@@ -4874,7 +4874,7 @@
         <v>0.12</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="M101" t="n">
         <v>-0.49</v>
@@ -4918,7 +4918,7 @@
         <v>-1.08</v>
       </c>
       <c r="L102" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="M102" t="n">
         <v>-0.29</v>
@@ -4962,7 +4962,7 @@
         <v>-0.77</v>
       </c>
       <c r="L103" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="M103" t="n">
         <v>2.11</v>
@@ -5006,7 +5006,7 @@
         <v>0.73</v>
       </c>
       <c r="L104" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="M104" t="n">
         <v>0.11</v>
@@ -5050,7 +5050,7 @@
         <v>-0.38</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="M105" t="n">
         <v>1.11</v>
@@ -5094,7 +5094,7 @@
         <v>0.23</v>
       </c>
       <c r="L106" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="M106" t="n">
         <v>-0.09</v>
@@ -5138,7 +5138,7 @@
         <v>0.03</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.7</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="M107" t="n">
         <v>-0.09</v>
@@ -5226,7 +5226,7 @@
         <v>0.62</v>
       </c>
       <c r="L109" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="M109" t="n">
         <v>-0.89</v>
@@ -5270,7 +5270,7 @@
         <v>1.23</v>
       </c>
       <c r="L110" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="M110" t="n">
         <v>1.11</v>
@@ -5314,7 +5314,7 @@
         <v>-0.88</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="M111" t="n">
         <v>0.8100000000000001</v>
@@ -5358,7 +5358,7 @@
         <v>0.33</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="M112" t="n">
         <v>0.61</v>
@@ -5402,13 +5402,13 @@
         <v>0.73</v>
       </c>
       <c r="L113" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="M113" t="n">
         <v>0.01</v>
       </c>
       <c r="N113" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="114">
@@ -5490,13 +5490,13 @@
         <v>0.43</v>
       </c>
       <c r="L115" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M115" t="n">
         <v>1.41</v>
       </c>
       <c r="N115" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="116">
@@ -5534,7 +5534,7 @@
         <v>0.63</v>
       </c>
       <c r="L116" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="M116" t="n">
         <v>1.31</v>
@@ -5556,7 +5556,9 @@
       <c r="D117" t="n">
         <v>-0.92</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.65</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -5566,7 +5568,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.03</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -10530,7 +10532,7 @@
         <v>0.59</v>
       </c>
       <c r="J114" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="K114" t="n">
         <v>1.9</v>
@@ -10542,7 +10544,7 @@
         <v>3.02</v>
       </c>
       <c r="N114" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="115">
@@ -10646,7 +10648,9 @@
       <c r="D117" t="n">
         <v>-1.56</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>-0.42</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -10656,7 +10660,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.23</v>
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -15775,7 +15779,7 @@
         <v>0.21</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F116" t="n">
         <v>2.06</v>
@@ -15818,7 +15822,9 @@
       <c r="D117" t="n">
         <v>-0.79</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.2</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -15828,7 +15834,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -20990,7 +20996,9 @@
       <c r="D117" t="n">
         <v>-1.03</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.89</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -21000,7 +21008,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.1</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -26068,7 +26076,9 @@
       <c r="D117" t="n">
         <v>-1.37</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.54</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -26078,7 +26088,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.9</v>
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -31240,7 +31250,9 @@
       <c r="D117" t="n">
         <v>-1.22</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.39</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -31250,7 +31262,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.16</v>
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -36412,7 +36424,9 @@
       <c r="D117" t="n">
         <v>-1</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.11</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -36422,7 +36436,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.14</v>
+        <v>-0.08</v>
       </c>
     </row>
   </sheetData>
@@ -36590,7 +36604,7 @@
         <v>-0.1498000000000003</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.04253333333333309</v>
+        <v>-0.04186666666666632</v>
       </c>
       <c r="M3" t="n">
         <v>-0.9888666666666672</v>
@@ -36634,7 +36648,7 @@
         <v>-1.571800000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.062533333333333</v>
+        <v>-2.061866666666666</v>
       </c>
       <c r="M4" t="n">
         <v>-3.308866666666668</v>
@@ -36678,7 +36692,7 @@
         <v>-0.6965238095238099</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.127999999999999</v>
+        <v>-1.127523809523809</v>
       </c>
       <c r="M5" t="n">
         <v>-1.370619047619048</v>
@@ -36722,7 +36736,7 @@
         <v>-0.2379523809523808</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.8837142857142855</v>
+        <v>-0.8832380952380949</v>
       </c>
       <c r="M6" t="n">
         <v>-1.926333333333334</v>
@@ -36766,7 +36780,7 @@
         <v>-1.409380952380953</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.412285714285714</v>
+        <v>-1.411809523809524</v>
       </c>
       <c r="M7" t="n">
         <v>-3.31204761904762</v>
@@ -36810,7 +36824,7 @@
         <v>0.7049047619047618</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.8837142857142851</v>
+        <v>-0.8832380952380945</v>
       </c>
       <c r="M8" t="n">
         <v>-0.3891904761904768</v>
@@ -36854,7 +36868,7 @@
         <v>-0.3008095238095239</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8534285714285719</v>
+        <v>0.8539047619047624</v>
       </c>
       <c r="M9" t="n">
         <v>0.2536666666666658</v>
@@ -36898,7 +36912,7 @@
         <v>0.1277619047619045</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2962857142857149</v>
+        <v>0.2967619047619054</v>
       </c>
       <c r="M10" t="n">
         <v>-1.460619047619048</v>
@@ -36942,7 +36956,7 @@
         <v>-0.7136666666666667</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.503714285714285</v>
+        <v>-1.503238095238095</v>
       </c>
       <c r="M11" t="n">
         <v>-2.83204761904762</v>
@@ -36986,7 +37000,7 @@
         <v>-1.143666666666667</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.246571428571428</v>
+        <v>-2.246095238095238</v>
       </c>
       <c r="M12" t="n">
         <v>-2.903476190476191</v>
@@ -37030,7 +37044,7 @@
         <v>-0.5722380952380953</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.818</v>
+        <v>-1.817523809523809</v>
       </c>
       <c r="M13" t="n">
         <v>-1.299190476190477</v>
@@ -37074,7 +37088,7 @@
         <v>0.362047619047619</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.042285714285714</v>
+        <v>-1.041809523809523</v>
       </c>
       <c r="M14" t="n">
         <v>-1.613476190476191</v>
@@ -37118,7 +37132,7 @@
         <v>0.6034761904761902</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.9137142857142854</v>
+        <v>-0.9132380952380947</v>
       </c>
       <c r="M15" t="n">
         <v>-0.5134761904761912</v>
@@ -37162,7 +37176,7 @@
         <v>0.01919047619047604</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8262857142857147</v>
+        <v>0.8267619047619054</v>
       </c>
       <c r="M16" t="n">
         <v>0.2550952380952375</v>
@@ -37206,7 +37220,7 @@
         <v>0.7577619047619049</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1120000000000003</v>
+        <v>0.1124761904761909</v>
       </c>
       <c r="M17" t="n">
         <v>-1.273476190476191</v>
@@ -37250,7 +37264,7 @@
         <v>-0.4993809523809523</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.559428571428571</v>
+        <v>-1.55895238095238</v>
       </c>
       <c r="M18" t="n">
         <v>-1.30204761904762</v>
@@ -37294,7 +37308,7 @@
         <v>-0.0908095238095239</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.609428571428571</v>
+        <v>-1.608952380952381</v>
       </c>
       <c r="M19" t="n">
         <v>-1.75204761904762</v>
@@ -37338,7 +37352,7 @@
         <v>-0.9208095238095239</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.495142857142857</v>
+        <v>-1.494666666666666</v>
       </c>
       <c r="M20" t="n">
         <v>-2.037761904761906</v>
@@ -37382,7 +37396,7 @@
         <v>-0.08366666666666678</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.9979999999999999</v>
+        <v>-0.9975238095238093</v>
       </c>
       <c r="M21" t="n">
         <v>-1.069190476190477</v>
@@ -37426,7 +37440,7 @@
         <v>-0.8950952380952384</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.1408571428571426</v>
+        <v>-0.140380952380952</v>
       </c>
       <c r="M22" t="n">
         <v>-1.369190476190477</v>
@@ -37470,7 +37484,7 @@
         <v>-2.265095238095238</v>
       </c>
       <c r="L23" t="n">
-        <v>-2.212285714285714</v>
+        <v>-2.211809523809523</v>
       </c>
       <c r="M23" t="n">
         <v>-1.91204761904762</v>
@@ -37514,7 +37528,7 @@
         <v>-0.8522380952380954</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.1408571428571423</v>
+        <v>-0.1403809523809518</v>
       </c>
       <c r="M24" t="n">
         <v>-0.9834761904761916</v>
@@ -37558,7 +37572,7 @@
         <v>0.3449047619047619</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6594285714285709</v>
+        <v>-0.6589523809523803</v>
       </c>
       <c r="M25" t="n">
         <v>-1.444904761904762</v>
@@ -37602,7 +37616,7 @@
         <v>-1.070809523809524</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.488</v>
+        <v>-1.487523809523809</v>
       </c>
       <c r="M26" t="n">
         <v>-0.7877619047619054</v>
@@ -37646,7 +37660,7 @@
         <v>-0.6565238095238096</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5120000000000006</v>
+        <v>0.5124761904761911</v>
       </c>
       <c r="M27" t="n">
         <v>1.59795238095238</v>
@@ -37690,7 +37704,7 @@
         <v>-0.02795238095238111</v>
       </c>
       <c r="L28" t="n">
-        <v>-2.016571428571428</v>
+        <v>-2.016095238095237</v>
       </c>
       <c r="M28" t="n">
         <v>0.9265238095238088</v>
@@ -37734,7 +37748,7 @@
         <v>0.3863333333333333</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2737142857142851</v>
+        <v>-0.2732380952380946</v>
       </c>
       <c r="M29" t="n">
         <v>-1.744904761904763</v>
@@ -37778,7 +37792,7 @@
         <v>-1.955095238095238</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.4594285714285711</v>
+        <v>-0.4589523809523805</v>
       </c>
       <c r="M30" t="n">
         <v>0.283666666666666</v>
@@ -37822,7 +37836,7 @@
         <v>-0.4550952380952383</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3262857142857148</v>
+        <v>0.3267619047619053</v>
       </c>
       <c r="M31" t="n">
         <v>-2.144904761904763</v>
@@ -37866,7 +37880,7 @@
         <v>-1.455095238095238</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0594285714285711</v>
+        <v>-0.05895238095238055</v>
       </c>
       <c r="M32" t="n">
         <v>-0.3449047619047629</v>
@@ -37910,7 +37924,7 @@
         <v>-1.142238095238095</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.259428571428571</v>
+        <v>-1.258952380952381</v>
       </c>
       <c r="M33" t="n">
         <v>-0.2877619047619055</v>
@@ -37954,7 +37968,7 @@
         <v>-1.455095238095238</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.8594285714285711</v>
+        <v>-0.8589523809523805</v>
       </c>
       <c r="M34" t="n">
         <v>-1.430619047619049</v>
@@ -37998,7 +38012,7 @@
         <v>0.2177619047619046</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.415142857142857</v>
+        <v>-0.4146666666666664</v>
       </c>
       <c r="M35" t="n">
         <v>-2.263476190476191</v>
@@ -38042,7 +38056,7 @@
         <v>-0.9879523809523812</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.2779999999999996</v>
+        <v>-0.277523809523809</v>
       </c>
       <c r="M36" t="n">
         <v>-0.4634761904761913</v>
@@ -38086,7 +38100,7 @@
         <v>-0.9050952380952381</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.266571428571428</v>
+        <v>-1.266095238095237</v>
       </c>
       <c r="M37" t="n">
         <v>-2.45204761904762</v>
@@ -38130,7 +38144,7 @@
         <v>-2.50652380952381</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.6679999999999995</v>
+        <v>-0.667523809523809</v>
       </c>
       <c r="M38" t="n">
         <v>-3.339190476190476</v>
@@ -38174,7 +38188,7 @@
         <v>-1.679380952380953</v>
       </c>
       <c r="L39" t="n">
-        <v>-3.653714285714286</v>
+        <v>-3.653238095238095</v>
       </c>
       <c r="M39" t="n">
         <v>-2.624904761904763</v>
@@ -38218,7 +38232,7 @@
         <v>-0.3093809523809525</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.7265714285714279</v>
+        <v>-0.7260952380952373</v>
       </c>
       <c r="M40" t="n">
         <v>-0.1549047619047629</v>
@@ -38262,7 +38276,7 @@
         <v>-1.109380952380952</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.069428571428571</v>
+        <v>-1.068952380952381</v>
       </c>
       <c r="M41" t="n">
         <v>-1.397761904761905</v>
@@ -38306,7 +38320,7 @@
         <v>0.462047619047619</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.126571428571428</v>
+        <v>-1.126095238095238</v>
       </c>
       <c r="M42" t="n">
         <v>-1.840619047619048</v>
@@ -38350,7 +38364,7 @@
         <v>-0.2522380952380954</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.3837142857142853</v>
+        <v>-0.3832380952380948</v>
       </c>
       <c r="M43" t="n">
         <v>-1.226333333333334</v>
@@ -38394,7 +38408,7 @@
         <v>-0.2422380952380951</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.5894285714285709</v>
+        <v>-0.5889523809523803</v>
       </c>
       <c r="M44" t="n">
         <v>-2.289190476190477</v>
@@ -38438,7 +38452,7 @@
         <v>-0.02795238095238111</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03914285714285765</v>
+        <v>0.03961904761904821</v>
       </c>
       <c r="M45" t="n">
         <v>-0.1320476190476201</v>
@@ -38482,7 +38496,7 @@
         <v>-0.9136666666666668</v>
       </c>
       <c r="L46" t="n">
-        <v>0.6248571428571433</v>
+        <v>0.6253333333333339</v>
       </c>
       <c r="M46" t="n">
         <v>-0.7749047619047627</v>
@@ -38526,7 +38540,7 @@
         <v>-1.770809523809524</v>
       </c>
       <c r="L47" t="n">
-        <v>1.253428571428573</v>
+        <v>1.253904761904763</v>
       </c>
       <c r="M47" t="n">
         <v>-0.2749047619047627</v>
@@ -38570,7 +38584,7 @@
         <v>0.3434761904761904</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.7608571428571426</v>
+        <v>-0.760380952380952</v>
       </c>
       <c r="M48" t="n">
         <v>-0.2606190476190484</v>
@@ -38614,7 +38628,7 @@
         <v>0.2277619047619045</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01057142857142893</v>
+        <v>0.01104761904761948</v>
       </c>
       <c r="M49" t="n">
         <v>-0.5463333333333343</v>
@@ -38658,7 +38672,7 @@
         <v>-1.313666666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.4465714285714282</v>
+        <v>-0.4460952380952377</v>
       </c>
       <c r="M50" t="n">
         <v>-2.03204761904762</v>
@@ -38702,7 +38716,7 @@
         <v>0.8706190476190476</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.08942857142857109</v>
+        <v>-0.08895238095238055</v>
       </c>
       <c r="M51" t="n">
         <v>0.4822380952380944</v>
@@ -38746,7 +38760,7 @@
         <v>-1.615095238095238</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.4179999999999994</v>
+        <v>-0.4175238095238089</v>
       </c>
       <c r="M52" t="n">
         <v>0.1393809523809517</v>
@@ -38790,7 +38804,7 @@
         <v>0.4863333333333334</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.5365714285714281</v>
+        <v>-0.5360952380952375</v>
       </c>
       <c r="M53" t="n">
         <v>-2.093476190476191</v>
@@ -38834,7 +38848,7 @@
         <v>0.8963333333333334</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.05085714285714259</v>
+        <v>-0.05038095238095203</v>
       </c>
       <c r="M54" t="n">
         <v>0.1065238095238085</v>
@@ -38878,7 +38892,7 @@
         <v>1.224904761904762</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.2651428571428566</v>
+        <v>-0.2646666666666661</v>
       </c>
       <c r="M55" t="n">
         <v>-0.9506190476190485</v>
@@ -38922,7 +38936,7 @@
         <v>-0.2322380952380951</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.622285714285714</v>
+        <v>-1.621809523809523</v>
       </c>
       <c r="M56" t="n">
         <v>-2.007761904761905</v>
@@ -38966,7 +38980,7 @@
         <v>-0.8436666666666668</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.8179999999999995</v>
+        <v>-0.817523809523809</v>
       </c>
       <c r="M57" t="n">
         <v>-0.189190476190477</v>
@@ -39010,7 +39024,7 @@
         <v>-1.799380952380952</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.8179999999999997</v>
+        <v>-0.8175238095238092</v>
       </c>
       <c r="M58" t="n">
         <v>-1.23204761904762</v>
@@ -39054,7 +39068,7 @@
         <v>-0.9993809523809524</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.046571428571428</v>
+        <v>-1.046095238095238</v>
       </c>
       <c r="M59" t="n">
         <v>-1.189190476190477</v>
@@ -39098,7 +39112,7 @@
         <v>-0.3008095238095241</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.8208571428571425</v>
+        <v>-0.820380952380952</v>
       </c>
       <c r="M60" t="n">
         <v>-0.3920476190476196</v>
@@ -39142,7 +39156,7 @@
         <v>-1.202238095238095</v>
       </c>
       <c r="L61" t="n">
-        <v>-1.335142857142857</v>
+        <v>-1.334666666666666</v>
       </c>
       <c r="M61" t="n">
         <v>-1.349190476190477</v>
@@ -39186,7 +39200,7 @@
         <v>-1.745095238095238</v>
       </c>
       <c r="L62" t="n">
-        <v>0.393428571428572</v>
+        <v>0.3939047619047625</v>
       </c>
       <c r="M62" t="n">
         <v>1.022238095238094</v>
@@ -39230,7 +39244,7 @@
         <v>0.06776190476190459</v>
       </c>
       <c r="L63" t="n">
-        <v>0.07914285714285756</v>
+        <v>0.07961904761904812</v>
       </c>
       <c r="M63" t="n">
         <v>-0.206333333333334</v>
@@ -39274,7 +39288,7 @@
         <v>-0.4022380952380953</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.3208571428571422</v>
+        <v>-0.3203809523809516</v>
       </c>
       <c r="M64" t="n">
         <v>0.07938095238095169</v>
@@ -39318,7 +39332,7 @@
         <v>0.0106190476190474</v>
       </c>
       <c r="L65" t="n">
-        <v>1.379142857142858</v>
+        <v>1.379619047619048</v>
       </c>
       <c r="M65" t="n">
         <v>-1.906333333333334</v>
@@ -39362,7 +39376,7 @@
         <v>-0.2450952380952383</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5362857142857146</v>
+        <v>0.5367619047619051</v>
       </c>
       <c r="M66" t="n">
         <v>-0.2206190476190482</v>
@@ -39406,7 +39420,7 @@
         <v>-0.2465238095238098</v>
       </c>
       <c r="L67" t="n">
-        <v>0.6220000000000006</v>
+        <v>0.6224761904761911</v>
       </c>
       <c r="M67" t="n">
         <v>0.8793809523809516</v>
@@ -39450,7 +39464,7 @@
         <v>-0.2750952380952383</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.8351428571428567</v>
+        <v>-0.8346666666666662</v>
       </c>
       <c r="M68" t="n">
         <v>-2.034904761904762</v>
@@ -39494,7 +39508,7 @@
         <v>-1.242238095238096</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.532285714285714</v>
+        <v>-1.531809523809524</v>
       </c>
       <c r="M69" t="n">
         <v>-0.203476190476192</v>
@@ -39538,7 +39552,7 @@
         <v>-0.885095238095238</v>
       </c>
       <c r="L70" t="n">
-        <v>-1.089428571428571</v>
+        <v>-1.088952380952381</v>
       </c>
       <c r="M70" t="n">
         <v>-1.717761904761905</v>
@@ -39582,7 +39596,7 @@
         <v>-1.242238095238095</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.3608571428571427</v>
+        <v>-0.3603809523809521</v>
       </c>
       <c r="M71" t="n">
         <v>-0.489190476190477</v>
@@ -39626,7 +39640,7 @@
         <v>0.01490476190476198</v>
       </c>
       <c r="L72" t="n">
-        <v>0.710571428571429</v>
+        <v>0.7110476190476195</v>
       </c>
       <c r="M72" t="n">
         <v>-0.43204761904762</v>
@@ -39670,7 +39684,7 @@
         <v>0.6291904761904761</v>
       </c>
       <c r="L73" t="n">
-        <v>-1.060857142857142</v>
+        <v>-1.060380952380952</v>
       </c>
       <c r="M73" t="n">
         <v>-0.6606190476190482</v>
@@ -39714,7 +39728,7 @@
         <v>-0.08509523809523831</v>
       </c>
       <c r="L74" t="n">
-        <v>0.6534285714285717</v>
+        <v>0.6539047619047622</v>
       </c>
       <c r="M74" t="n">
         <v>1.382238095238094</v>
@@ -39758,7 +39772,7 @@
         <v>-1.75652380952381</v>
       </c>
       <c r="L75" t="n">
-        <v>0.6962857142857147</v>
+        <v>0.6967619047619052</v>
       </c>
       <c r="M75" t="n">
         <v>-1.974904761904763</v>
@@ -39802,7 +39816,7 @@
         <v>0.7149047619047618</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.1894285714285708</v>
+        <v>-0.1889523809523802</v>
       </c>
       <c r="M76" t="n">
         <v>-1.146333333333334</v>
@@ -39846,7 +39860,7 @@
         <v>-0.5850952380952382</v>
       </c>
       <c r="L77" t="n">
-        <v>1.124857142857143</v>
+        <v>1.125333333333334</v>
       </c>
       <c r="M77" t="n">
         <v>0.7250952380952371</v>
@@ -39890,7 +39904,7 @@
         <v>-1.099380952380953</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.03228571428571377</v>
+        <v>-0.03180952380952323</v>
       </c>
       <c r="M78" t="n">
         <v>1.025095238095238</v>
@@ -39934,7 +39948,7 @@
         <v>0.9006190476190472</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1391428571428577</v>
+        <v>0.1396190476190482</v>
       </c>
       <c r="M79" t="n">
         <v>-0.1034761904761911</v>
@@ -39978,7 +39992,7 @@
         <v>0.1649047619047618</v>
       </c>
       <c r="L80" t="n">
-        <v>0.4891428571428577</v>
+        <v>0.4896190476190482</v>
       </c>
       <c r="M80" t="n">
         <v>-0.2391904761904769</v>
@@ -40022,7 +40036,7 @@
         <v>1.022047619047619</v>
       </c>
       <c r="L81" t="n">
-        <v>0.960571428571429</v>
+        <v>0.9610476190476195</v>
       </c>
       <c r="M81" t="n">
         <v>0.7322380952380946</v>
@@ -40066,7 +40080,7 @@
         <v>1.09347619047619</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8320000000000001</v>
+        <v>0.8324761904761907</v>
       </c>
       <c r="M82" t="n">
         <v>-0.5963333333333344</v>
@@ -40110,7 +40124,7 @@
         <v>-0.007952380952381028</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2891428571428575</v>
+        <v>0.2896190476190481</v>
       </c>
       <c r="M83" t="n">
         <v>0.08938095238095148</v>
@@ -40154,7 +40168,7 @@
         <v>-0.4022380952380954</v>
       </c>
       <c r="L84" t="n">
-        <v>-1.363714285714285</v>
+        <v>-1.363238095238095</v>
       </c>
       <c r="M84" t="n">
         <v>-0.9063333333333341</v>
@@ -40198,7 +40212,7 @@
         <v>-0.630809523809524</v>
       </c>
       <c r="L85" t="n">
-        <v>0.8505714285714291</v>
+        <v>0.8510476190476196</v>
       </c>
       <c r="M85" t="n">
         <v>-0.6634761904761911</v>
@@ -40242,7 +40256,7 @@
         <v>0.1263333333333333</v>
       </c>
       <c r="L86" t="n">
-        <v>-1.378</v>
+        <v>-1.377523809523809</v>
       </c>
       <c r="M86" t="n">
         <v>-1.020619047619048</v>
@@ -40286,7 +40300,7 @@
         <v>-1.287952380952381</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.2494285714285712</v>
+        <v>-0.2489523809523807</v>
       </c>
       <c r="M87" t="n">
         <v>-0.7206190476190485</v>
@@ -40330,7 +40344,7 @@
         <v>-0.05938095238095225</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.749428571428571</v>
+        <v>-0.7489523809523805</v>
       </c>
       <c r="M88" t="n">
         <v>1.036523809523809</v>
@@ -40374,7 +40388,7 @@
         <v>0.4263333333333335</v>
       </c>
       <c r="L89" t="n">
-        <v>-1.020857142857142</v>
+        <v>-1.020380952380952</v>
       </c>
       <c r="M89" t="n">
         <v>-1.013476190476191</v>
@@ -40418,7 +40432,7 @@
         <v>-0.09509523809523797</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.0551428571428564</v>
+        <v>-0.05466666666666585</v>
       </c>
       <c r="M90" t="n">
         <v>-1.083476190476192</v>
@@ -40462,7 +40476,7 @@
         <v>1.254904761904762</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0662857142857151</v>
+        <v>0.06676190476190566</v>
       </c>
       <c r="M91" t="n">
         <v>0.180809523809523</v>
@@ -40506,7 +40520,7 @@
         <v>1.369190476190476</v>
       </c>
       <c r="L92" t="n">
-        <v>1.280571428571429</v>
+        <v>1.281047619047619</v>
       </c>
       <c r="M92" t="n">
         <v>-1.033476190476191</v>
@@ -40550,7 +40564,7 @@
         <v>0.1806190476190476</v>
       </c>
       <c r="L93" t="n">
-        <v>-1.823714285714285</v>
+        <v>-1.823238095238095</v>
       </c>
       <c r="M93" t="n">
         <v>0.790809523809523</v>
@@ -40594,7 +40608,7 @@
         <v>1.637761904761905</v>
       </c>
       <c r="L94" t="n">
-        <v>0.8762857142857147</v>
+        <v>0.8767619047619053</v>
       </c>
       <c r="M94" t="n">
         <v>1.34795238095238</v>
@@ -40638,7 +40652,7 @@
         <v>-1.619380952380953</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.6522857142857138</v>
+        <v>-0.6518095238095232</v>
       </c>
       <c r="M95" t="n">
         <v>-0.1520476190476199</v>
@@ -40682,7 +40696,7 @@
         <v>-0.7765238095238096</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.7951428571428567</v>
+        <v>-0.7946666666666662</v>
       </c>
       <c r="M96" t="n">
         <v>-0.1520476190476201</v>
@@ -40726,7 +40740,7 @@
         <v>0.1377619047619045</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5048571428571431</v>
+        <v>0.5053333333333336</v>
       </c>
       <c r="M97" t="n">
         <v>-2.237761904761906</v>
@@ -40770,7 +40784,7 @@
         <v>-0.08938095238095249</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.1351428571428567</v>
+        <v>-0.1346666666666662</v>
       </c>
       <c r="M98" t="n">
         <v>1.936523809523809</v>
@@ -40814,7 +40828,7 @@
         <v>-0.160809523809524</v>
       </c>
       <c r="L99" t="n">
-        <v>0.007714285714286133</v>
+        <v>0.008190476190476683</v>
       </c>
       <c r="M99" t="n">
         <v>-2.09204761904762</v>
@@ -40858,7 +40872,7 @@
         <v>-0.6750952380952382</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.6922857142857139</v>
+        <v>-0.6918095238095233</v>
       </c>
       <c r="M100" t="n">
         <v>0.4793809523809513</v>
@@ -40902,7 +40916,7 @@
         <v>-0.4179523809523809</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2648571428571428</v>
+        <v>0.2653333333333334</v>
       </c>
       <c r="M101" t="n">
         <v>0.09366666666666593</v>
@@ -40946,7 +40960,7 @@
         <v>-1.332238095238095</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.1065714285714282</v>
+        <v>-0.1060952380952377</v>
       </c>
       <c r="M102" t="n">
         <v>-0.5063333333333342</v>
@@ -40990,7 +41004,7 @@
         <v>-0.6879523809523809</v>
       </c>
       <c r="L103" t="n">
-        <v>0.9362857142857146</v>
+        <v>0.9367619047619051</v>
       </c>
       <c r="M103" t="n">
         <v>1.550809523809523</v>
@@ -41034,7 +41048,7 @@
         <v>0.5834761904761905</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.03514285714285657</v>
+        <v>-0.03466666666666602</v>
       </c>
       <c r="M104" t="n">
         <v>0.4079523809523798</v>
@@ -41078,7 +41092,7 @@
         <v>-0.4322380952380953</v>
       </c>
       <c r="L105" t="n">
-        <v>-1.092285714285714</v>
+        <v>-1.091809523809523</v>
       </c>
       <c r="M105" t="n">
         <v>0.8793809523809519</v>
@@ -41122,7 +41136,7 @@
         <v>0.6263333333333331</v>
       </c>
       <c r="L106" t="n">
-        <v>1.407714285714286</v>
+        <v>1.408190476190477</v>
       </c>
       <c r="M106" t="n">
         <v>0.6079523809523801</v>
@@ -41166,7 +41180,7 @@
         <v>-0.4165238095238096</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.6065714285714281</v>
+        <v>-0.6060952380952376</v>
       </c>
       <c r="M107" t="n">
         <v>0.3079523809523797</v>
@@ -41210,7 +41224,7 @@
         <v>0.04061904761904727</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.3922857142857137</v>
+        <v>-0.3918095238095232</v>
       </c>
       <c r="M108" t="n">
         <v>-0.6491904761904769</v>
@@ -41254,7 +41268,7 @@
         <v>0.7820476190476187</v>
       </c>
       <c r="L109" t="n">
-        <v>0.7220000000000002</v>
+        <v>0.7224761904761907</v>
       </c>
       <c r="M109" t="n">
         <v>-0.6206190476190486</v>
@@ -41298,7 +41312,7 @@
         <v>0.9406190476190474</v>
       </c>
       <c r="L110" t="n">
-        <v>0.9362857142857149</v>
+        <v>0.9367619047619055</v>
       </c>
       <c r="M110" t="n">
         <v>1.60795238095238</v>
@@ -41342,7 +41356,7 @@
         <v>0.1677619047619045</v>
       </c>
       <c r="L111" t="n">
-        <v>0.5934285714285717</v>
+        <v>0.5939047619047624</v>
       </c>
       <c r="M111" t="n">
         <v>1.493666666666666</v>
@@ -41386,7 +41400,7 @@
         <v>-0.2736666666666667</v>
       </c>
       <c r="L112" t="n">
-        <v>1.522</v>
+        <v>1.522476190476191</v>
       </c>
       <c r="M112" t="n">
         <v>0.09366666666666568</v>
@@ -41430,13 +41444,13 @@
         <v>1.08347619047619</v>
       </c>
       <c r="L113" t="n">
-        <v>1.179142857142857</v>
+        <v>1.165333333333334</v>
       </c>
       <c r="M113" t="n">
         <v>0.03652380952380848</v>
       </c>
       <c r="N113" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="114">
@@ -41468,19 +41482,19 @@
         <v>1.027761904761905</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0418571428571425</v>
+        <v>0.02757142857142814</v>
       </c>
       <c r="K114" t="n">
         <v>1.48347619047619</v>
       </c>
       <c r="L114" t="n">
-        <v>2.007714285714286</v>
+        <v>2.008190476190477</v>
       </c>
       <c r="M114" t="n">
         <v>2.022238095238094</v>
       </c>
       <c r="N114" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="115">
@@ -41518,7 +41532,7 @@
         <v>-0.08795238095238135</v>
       </c>
       <c r="L115" t="n">
-        <v>1.979142857142858</v>
+        <v>1.979619047619048</v>
       </c>
       <c r="M115" t="n">
         <v>1.279380952380951</v>
@@ -41541,7 +41555,7 @@
         <v>-0.02597701149425369</v>
       </c>
       <c r="E116" t="n">
-        <v>1.380476190476191</v>
+        <v>1.366190476190477</v>
       </c>
       <c r="F116" t="n">
         <v>2.468571428571429</v>
@@ -41562,7 +41576,7 @@
         <v>-0.0165238095238098</v>
       </c>
       <c r="L116" t="n">
-        <v>0.4791428571428576</v>
+        <v>0.4796190476190482</v>
       </c>
       <c r="M116" t="n">
         <v>1.336523809523808</v>
@@ -41584,7 +41598,9 @@
       <c r="D117" t="n">
         <v>-1.125977011494254</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.3376190476190487</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -41594,7 +41610,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.19</v>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -42510,13 +42526,13 @@
         <v>-0.92</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.5</v>
+        <v>-1.49</v>
       </c>
       <c r="M20" t="n">
         <v>-2.04</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.32</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="21">
@@ -43170,13 +43186,13 @@
         <v>0.22</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="M35" t="n">
         <v>-2.26</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.88</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="36">
@@ -43654,7 +43670,7 @@
         <v>-0.91</v>
       </c>
       <c r="L46" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="M46" t="n">
         <v>-0.77</v>
@@ -44050,7 +44066,7 @@
         <v>1.22</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="M55" t="n">
         <v>-0.95</v>
@@ -44314,7 +44330,7 @@
         <v>-1.2</v>
       </c>
       <c r="L61" t="n">
-        <v>-1.34</v>
+        <v>-1.33</v>
       </c>
       <c r="M61" t="n">
         <v>-1.35</v>
@@ -44622,7 +44638,7 @@
         <v>-0.28</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.84</v>
+        <v>-0.83</v>
       </c>
       <c r="M68" t="n">
         <v>-2.03</v>
@@ -45018,7 +45034,7 @@
         <v>-0.59</v>
       </c>
       <c r="L77" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="M77" t="n">
         <v>0.73</v>
@@ -45590,7 +45606,7 @@
         <v>-0.1</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="M90" t="n">
         <v>-1.08</v>
@@ -45854,7 +45870,7 @@
         <v>-0.78</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.8</v>
+        <v>-0.79</v>
       </c>
       <c r="M96" t="n">
         <v>-0.15</v>
@@ -45898,7 +45914,7 @@
         <v>0.14</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="M97" t="n">
         <v>-2.24</v>
@@ -45942,7 +45958,7 @@
         <v>-0.09</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="M98" t="n">
         <v>1.94</v>
@@ -46074,7 +46090,7 @@
         <v>-0.42</v>
       </c>
       <c r="L101" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="M101" t="n">
         <v>0.09</v>
@@ -46206,7 +46222,7 @@
         <v>0.58</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="M104" t="n">
         <v>0.41</v>
@@ -46602,7 +46618,7 @@
         <v>1.08</v>
       </c>
       <c r="L113" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M113" t="n">
         <v>0.04</v>
@@ -46640,7 +46656,7 @@
         <v>1.03</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="K114" t="n">
         <v>1.48</v>
@@ -46652,7 +46668,7 @@
         <v>2.02</v>
       </c>
       <c r="N114" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="115">
@@ -46713,7 +46729,7 @@
         <v>-0.03</v>
       </c>
       <c r="E116" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="F116" t="n">
         <v>2.47</v>
@@ -46756,7 +46772,9 @@
       <c r="D117" t="n">
         <v>-1.13</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.34</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -46766,7 +46784,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.19</v>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5559,7 +5559,9 @@
       <c r="E117" t="n">
         <v>0.65</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.55</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -5568,7 +5570,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.14</v>
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -10651,7 +10653,9 @@
       <c r="E117" t="n">
         <v>-0.42</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-2.01</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -10660,7 +10664,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.28</v>
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -15825,7 +15829,9 @@
       <c r="E117" t="n">
         <v>0.2</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.84</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -15834,7 +15840,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -20999,7 +21005,9 @@
       <c r="E117" t="n">
         <v>0.89</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.73</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -21008,7 +21016,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.15</v>
+        <v>-0.23</v>
       </c>
     </row>
   </sheetData>
@@ -26079,7 +26087,9 @@
       <c r="E117" t="n">
         <v>0.54</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.31</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -26088,7 +26098,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.54</v>
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -31253,7 +31263,9 @@
       <c r="E117" t="n">
         <v>0.39</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-2.72</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -31262,7 +31274,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.02</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -36427,7 +36439,9 @@
       <c r="E117" t="n">
         <v>0.11</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.75</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -36436,7 +36450,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.08</v>
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -41601,7 +41615,9 @@
       <c r="E117" t="n">
         <v>0.3376190476190487</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.702857142857143</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -41610,7 +41626,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.06</v>
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -46775,7 +46791,9 @@
       <c r="E117" t="n">
         <v>0.34</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.7</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -46784,7 +46802,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.06</v>
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5562,7 +5562,9 @@
       <c r="F117" t="n">
         <v>-1.55</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.38</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5570,7 +5572,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.2</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -10656,7 +10658,9 @@
       <c r="F117" t="n">
         <v>-2.01</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.12</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -10664,7 +10668,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.63</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -15832,7 +15836,9 @@
       <c r="F117" t="n">
         <v>-1.84</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.85</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -15840,7 +15846,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.18</v>
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -21008,7 +21014,9 @@
       <c r="F117" t="n">
         <v>-1.73</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.66</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -21016,7 +21024,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.23</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -26090,7 +26098,9 @@
       <c r="F117" t="n">
         <v>-1.31</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.5</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -26098,7 +26108,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.7</v>
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -31266,7 +31276,9 @@
       <c r="F117" t="n">
         <v>-2.72</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.15</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -31274,7 +31286,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -36442,7 +36454,9 @@
       <c r="F117" t="n">
         <v>-0.75</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>2.35</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -36450,7 +36464,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.21</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -41618,7 +41632,9 @@
       <c r="F117" t="n">
         <v>-1.702857142857143</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.286333333333333</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -41626,7 +41642,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.39</v>
+        <v>-0.11</v>
       </c>
     </row>
   </sheetData>
@@ -46794,7 +46810,9 @@
       <c r="F117" t="n">
         <v>-1.7</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.29</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -46802,7 +46820,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.39</v>
+        <v>-0.11</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5565,14 +5565,16 @@
       <c r="G117" t="n">
         <v>1.38</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.25</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -10661,14 +10663,16 @@
       <c r="G117" t="n">
         <v>0.12</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.35</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.5</v>
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -15839,14 +15843,16 @@
       <c r="G117" t="n">
         <v>0.85</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.9399999999999999</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.01</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -21017,14 +21023,16 @@
       <c r="G117" t="n">
         <v>1.66</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.24</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -26101,14 +26109,16 @@
       <c r="G117" t="n">
         <v>1.5</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.07</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.33</v>
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -31279,14 +31289,16 @@
       <c r="G117" t="n">
         <v>1.15</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.21</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.28</v>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -36457,14 +36469,16 @@
       <c r="G117" t="n">
         <v>2.35</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>2.48</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.21</v>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
@@ -41635,14 +41649,16 @@
       <c r="G117" t="n">
         <v>1.286333333333333</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.076809523809523</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.11</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -46813,14 +46829,16 @@
       <c r="G117" t="n">
         <v>1.29</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.08</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.11</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMin_unrounded" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMin_rounded" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NZT7_TMin_unrounded" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="NZT7_TMin_rounded" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -5568,13 +5567,15 @@
       <c r="H117" t="n">
         <v>0.25</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.27</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -10666,13 +10667,15 @@
       <c r="H117" t="n">
         <v>0.35</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.38</v>
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -15846,13 +15849,15 @@
       <c r="H117" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.1</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -21026,13 +21031,15 @@
       <c r="H117" t="n">
         <v>1.24</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -26112,13 +26119,15 @@
       <c r="H117" t="n">
         <v>1.07</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.13</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -31292,13 +31301,15 @@
       <c r="H117" t="n">
         <v>1.21</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.06</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -36472,13 +36483,15 @@
       <c r="H117" t="n">
         <v>2.48</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.39</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -41652,13 +41665,15 @@
       <c r="H117" t="n">
         <v>1.076809523809523</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.6849047619047616</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -46832,13 +46847,15 @@
       <c r="H117" t="n">
         <v>1.08</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.68</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5570,12 +5570,14 @@
       <c r="I117" t="n">
         <v>0.27</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.15</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -10670,12 +10672,14 @@
       <c r="I117" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.58</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -15852,12 +15856,14 @@
       <c r="I117" t="n">
         <v>1.1</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.58</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -21034,12 +21040,14 @@
       <c r="I117" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>-0.23</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -26122,12 +26130,14 @@
       <c r="I117" t="n">
         <v>0.98</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -31304,12 +31314,14 @@
       <c r="I117" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.21</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -36486,7 +36498,9 @@
       <c r="I117" t="n">
         <v>0.39</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.49</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
@@ -41668,12 +41682,14 @@
       <c r="I117" t="n">
         <v>0.6849047619047616</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.4132857142857141</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -46850,12 +46866,14 @@
       <c r="I117" t="n">
         <v>0.68</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.41</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -5573,11 +5573,13 @@
       <c r="J117" t="n">
         <v>1.15</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.43</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -10675,11 +10677,13 @@
       <c r="J117" t="n">
         <v>0.58</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.8</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.15</v>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -15859,11 +15863,13 @@
       <c r="J117" t="n">
         <v>0.58</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.92</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -21043,11 +21049,13 @@
       <c r="J117" t="n">
         <v>-0.23</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.85</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -26133,11 +26141,13 @@
       <c r="J117" t="n">
         <v>0.1</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.67</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -31317,11 +31327,13 @@
       <c r="J117" t="n">
         <v>0.21</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.72</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -36501,11 +36513,13 @@
       <c r="J117" t="n">
         <v>0.49</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -41685,11 +41699,13 @@
       <c r="J117" t="n">
         <v>0.4132857142857141</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.7691904761904756</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -46869,11 +46885,13 @@
       <c r="J117" t="n">
         <v>0.41</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.77</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -10783,7 +10783,7 @@
         <v>-2.03</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>-1.21</v>
@@ -24863,7 +24863,7 @@
         <v>-1.02</v>
       </c>
       <c r="J88" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>-0.93</v>
@@ -36613,40 +36613,40 @@
         <v>1909</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.641666666666667</v>
+        <v>-2.641666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.148333333333335</v>
+        <v>-1.148333333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.024166666666666</v>
+        <v>0.02416666666666734</v>
       </c>
       <c r="E2" t="n">
         <v>-1.669166666666666</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02083333333333304</v>
+        <v>0.02083333333333282</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5344166666666665</v>
+        <v>0.5344166666666671</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5235833333333334</v>
+        <v>0.5235833333333333</v>
       </c>
       <c r="I2" t="n">
         <v>0.2227500000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.2769166666666663</v>
+        <v>-0.276916666666666</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5460833333333341</v>
+        <v>-0.5460833333333335</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2319166666666661</v>
+        <v>-0.2319166666666657</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1835</v>
+        <v>0.1834999999999996</v>
       </c>
       <c r="N2" t="n">
         <v>-0.42</v>
@@ -36657,40 +36657,40 @@
         <v>1910</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.272666666666667</v>
+        <v>-0.2726666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.090000000000002</v>
+        <v>-0.09000000000000127</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2226666666666677</v>
+        <v>-0.2226666666666663</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.202666666666666</v>
+        <v>-2.202666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1480000000000002</v>
+        <v>0.1479999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1461999999999997</v>
+        <v>0.1462000000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6298000000000004</v>
+        <v>-0.6298</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8264666666666667</v>
+        <v>-0.8264666666666663</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.3474</v>
+        <v>-1.347399999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1498000000000003</v>
+        <v>-0.1498000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.04186666666666632</v>
+        <v>-0.04186666666666596</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.9888666666666672</v>
+        <v>-0.9888666666666677</v>
       </c>
       <c r="N3" t="n">
         <v>-0.54</v>
@@ -36704,10 +36704,10 @@
         <v>-2.032666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.110000000000002</v>
+        <v>-2.110000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3973333333333329</v>
+        <v>0.3973333333333343</v>
       </c>
       <c r="E4" t="n">
         <v>1.677333333333334</v>
@@ -36716,19 +36716,19 @@
         <v>-1.052</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1462000000000001</v>
+        <v>0.1462000000000005</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.7498000000000005</v>
+        <v>-0.7498000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6264666666666667</v>
+        <v>-0.6264666666666664</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.1494</v>
+        <v>-1.149399999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.571800000000001</v>
+        <v>-1.5718</v>
       </c>
       <c r="L4" t="n">
         <v>-2.061866666666666</v>
@@ -36751,34 +36751,34 @@
         <v>-3.425555555555556</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.534750957854407</v>
+        <v>-2.534750957854406</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.9961111111111102</v>
+        <v>-0.9961111111111106</v>
       </c>
       <c r="F5" t="n">
         <v>-1.984444444444444</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.8987222222222222</v>
+        <v>-0.8987222222222218</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1657222222222219</v>
+        <v>0.1657222222222221</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.758722222222223</v>
+        <v>-1.758722222222222</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4504285714285713</v>
+        <v>0.4504285714285717</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.6965238095238099</v>
+        <v>-0.69652380952381</v>
       </c>
       <c r="L5" t="n">
         <v>-1.127523809523809</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.370619047619048</v>
+        <v>-1.370619047619049</v>
       </c>
       <c r="N5" t="n">
         <v>-1.4</v>
@@ -36795,10 +36795,10 @@
         <v>-1.990952380952381</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5602627257799673</v>
+        <v>-0.5602627257799659</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.453809523809523</v>
+        <v>-2.453809523809524</v>
       </c>
       <c r="F6" t="n">
         <v>-3.379999999999999</v>
@@ -36807,22 +36807,22 @@
         <v>-1.905095238095238</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2853809523809521</v>
+        <v>0.2853809523809523</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3350952380952384</v>
+        <v>-0.3350952380952381</v>
       </c>
       <c r="J6" t="n">
-        <v>0.579</v>
+        <v>0.5790000000000004</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.2379523809523808</v>
+        <v>-0.2379523809523809</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.8832380952380949</v>
+        <v>-0.8832380952380946</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.926333333333334</v>
+        <v>-1.926333333333335</v>
       </c>
       <c r="N6" t="n">
         <v>-1.16</v>
@@ -36833,37 +36833,37 @@
         <v>1914</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5604761904761902</v>
+        <v>-0.5604761904761906</v>
       </c>
       <c r="C7" t="n">
         <v>-1.090952380952381</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6888341543513962</v>
+        <v>-0.6888341543513948</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4966666666666659</v>
+        <v>-0.4966666666666665</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.365714285714285</v>
+        <v>-2.365714285714286</v>
       </c>
       <c r="G7" t="n">
         <v>-1.419380952380952</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.9146190476190478</v>
+        <v>-0.9146190476190476</v>
       </c>
       <c r="I7" t="n">
         <v>-1.90652380952381</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.592428571428572</v>
+        <v>-1.592428571428571</v>
       </c>
       <c r="K7" t="n">
         <v>-1.409380952380953</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.411809523809524</v>
+        <v>-1.411809523809523</v>
       </c>
       <c r="M7" t="n">
         <v>-3.31204761904762</v>
@@ -36877,40 +36877,40 @@
         <v>1915</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.189047619047618</v>
+        <v>-1.189047619047619</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.948095238095238</v>
+        <v>-1.948095238095239</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.631691297208539</v>
+        <v>-1.631691297208538</v>
       </c>
       <c r="E8" t="n">
         <v>-2.296666666666666</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9942857142857139</v>
+        <v>-0.9942857142857144</v>
       </c>
       <c r="G8" t="n">
         <v>-0.7622380952380953</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4710952380952377</v>
+        <v>0.471095238095238</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5208095238095239</v>
+        <v>-0.5208095238095237</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8518571428571429</v>
+        <v>0.8518571428571432</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7049047619047618</v>
+        <v>0.7049047619047617</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.8832380952380945</v>
+        <v>-0.8832380952380943</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.3891904761904768</v>
+        <v>-0.389190476190477</v>
       </c>
       <c r="N8" t="n">
         <v>-0.72</v>
@@ -36921,40 +36921,40 @@
         <v>1916</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9804761904761905</v>
+        <v>-0.9804761904761907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08904761904761901</v>
+        <v>0.08904761904761875</v>
       </c>
       <c r="D9" t="n">
-        <v>2.305451559934318</v>
+        <v>2.305451559934319</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1547619047619055</v>
+        <v>0.1547619047619049</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4285714285714287</v>
+        <v>0.4285714285714282</v>
       </c>
       <c r="G9" t="n">
         <v>1.503476190476191</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6939523809523804</v>
+        <v>0.6939523809523808</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1693809523809526</v>
+        <v>-0.1693809523809524</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.6267142857142859</v>
+        <v>-0.6267142857142856</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.3008095238095239</v>
+        <v>-0.300809523809524</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8539047619047624</v>
+        <v>0.8539047619047626</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2536666666666658</v>
+        <v>0.2536666666666655</v>
       </c>
       <c r="N9" t="n">
         <v>0.35</v>
@@ -36965,40 +36965,40 @@
         <v>1917</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1090476190476186</v>
+        <v>-0.1090476190476188</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.125238095238095</v>
+        <v>-1.125238095238096</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1374055829228248</v>
+        <v>-0.1374055829228235</v>
       </c>
       <c r="E10" t="n">
         <v>1.183333333333334</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8142857142857147</v>
+        <v>0.8142857142857142</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3034761904761906</v>
+        <v>0.3034761904761908</v>
       </c>
       <c r="H10" t="n">
-        <v>1.69395238095238</v>
+        <v>1.693952380952381</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5979523809523812</v>
+        <v>-0.597952380952381</v>
       </c>
       <c r="J10" t="n">
         <v>1.046142857142857</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1277619047619045</v>
+        <v>0.1277619047619043</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2967619047619054</v>
+        <v>0.2967619047619057</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.460619047619048</v>
+        <v>-1.460619047619049</v>
       </c>
       <c r="N10" t="n">
         <v>0.17</v>
@@ -37009,37 +37009,37 @@
         <v>1918</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2233333333333332</v>
+        <v>-0.2233333333333335</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6890476190476191</v>
+        <v>0.6890476190476189</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07688013136288976</v>
+        <v>0.07688013136289104</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1261904761904773</v>
+        <v>0.1261904761904766</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.085714285714285</v>
+        <v>-1.085714285714286</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1965238095238097</v>
+        <v>-0.1965238095238095</v>
       </c>
       <c r="H11" t="n">
         <v>-1.848904761904762</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.9550952380952383</v>
+        <v>-0.9550952380952381</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.412428571428572</v>
+        <v>-1.412428571428571</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.7136666666666667</v>
+        <v>-0.7136666666666668</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.503238095238095</v>
+        <v>-1.503238095238094</v>
       </c>
       <c r="M11" t="n">
         <v>-2.83204761904762</v>
@@ -37053,13 +37053,13 @@
         <v>1919</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.537619047619047</v>
+        <v>-2.537619047619048</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6680952380952382</v>
+        <v>-0.6680952380952385</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.794548440065682</v>
+        <v>-1.79454844006568</v>
       </c>
       <c r="E12" t="n">
         <v>-2.059523809523809</v>
@@ -37068,13 +37068,13 @@
         <v>-2.128571428571429</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.8965238095238096</v>
+        <v>-0.8965238095238093</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.2060476190476194</v>
+        <v>-0.2060476190476192</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4408095238095243</v>
+        <v>-0.440809523809524</v>
       </c>
       <c r="J12" t="n">
         <v>-2.098142857142857</v>
@@ -37083,10 +37083,10 @@
         <v>-1.143666666666667</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.246095238095238</v>
+        <v>-2.246095238095237</v>
       </c>
       <c r="M12" t="n">
-        <v>-2.903476190476191</v>
+        <v>-2.903476190476192</v>
       </c>
       <c r="N12" t="n">
         <v>-1.59</v>
@@ -37097,25 +37097,25 @@
         <v>1920</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.551904761904761</v>
+        <v>-2.551904761904762</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9252380952380952</v>
+        <v>-0.9252380952380955</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.465977011494253</v>
+        <v>-1.465977011494252</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2880952380952373</v>
+        <v>-0.288095238095238</v>
       </c>
       <c r="F13" t="n">
         <v>-2.442857142857143</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1250952380952381</v>
+        <v>-0.1250952380952379</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.191761904761905</v>
+        <v>-0.1917619047619048</v>
       </c>
       <c r="I13" t="n">
         <v>-1.512238095238095</v>
@@ -37124,7 +37124,7 @@
         <v>-1.339571428571428</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.5722380952380953</v>
+        <v>-0.5722380952380954</v>
       </c>
       <c r="L13" t="n">
         <v>-1.817523809523809</v>
@@ -37144,37 +37144,37 @@
         <v>-1.676190476190476</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.992380952380952</v>
+        <v>-1.992380952380953</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.518834154351396</v>
+        <v>-1.518834154351395</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.326666666666665</v>
+        <v>-2.326666666666666</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.881428571428571</v>
+        <v>-0.8814285714285716</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2791904761904762</v>
+        <v>0.2791904761904763</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1874761904761907</v>
+        <v>-0.1874761904761905</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.7936666666666669</v>
+        <v>-0.7936666666666665</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.3495714285714286</v>
+        <v>-0.3495714285714282</v>
       </c>
       <c r="K14" t="n">
-        <v>0.362047619047619</v>
+        <v>0.3620476190476188</v>
       </c>
       <c r="L14" t="n">
         <v>-1.041809523809523</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.613476190476191</v>
+        <v>-1.613476190476192</v>
       </c>
       <c r="N14" t="n">
         <v>-0.98</v>
@@ -37185,19 +37185,19 @@
         <v>1922</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.8333333333333329</v>
+        <v>-0.8333333333333331</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5780952380952381</v>
+        <v>-0.5780952380952383</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.804548440065682</v>
+        <v>-1.80454844006568</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.7123809523809513</v>
+        <v>-0.712380952380952</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6242857142857139</v>
+        <v>-0.6242857142857144</v>
       </c>
       <c r="G15" t="n">
         <v>-1.677952380952381</v>
@@ -37206,19 +37206,19 @@
         <v>-1.201761904761905</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.7650952380952384</v>
+        <v>-0.7650952380952383</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.179571428571429</v>
+        <v>-1.179571428571428</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6034761904761902</v>
+        <v>0.6034761904761901</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.9132380952380947</v>
+        <v>-0.9132380952380945</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.5134761904761912</v>
+        <v>-0.5134761904761914</v>
       </c>
       <c r="N15" t="n">
         <v>-0.85</v>
@@ -37229,40 +37229,40 @@
         <v>1923</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3904761904761904</v>
+        <v>-0.3904761904761906</v>
       </c>
       <c r="C16" t="n">
         <v>-2.706666666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.004548440065682</v>
+        <v>-2.004548440065681</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.069523809523808</v>
+        <v>-3.069523809523809</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1957142857142855</v>
+        <v>-0.195714285714286</v>
       </c>
       <c r="G16" t="n">
         <v>-1.106523809523809</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.8303333333333337</v>
+        <v>-0.8303333333333333</v>
       </c>
       <c r="I16" t="n">
         <v>-2.250809523809524</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.136714285714286</v>
+        <v>-0.1367142857142856</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01919047619047604</v>
+        <v>0.01919047619047592</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8267619047619054</v>
+        <v>0.8267619047619056</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2550952380952375</v>
+        <v>0.2550952380952372</v>
       </c>
       <c r="N16" t="n">
         <v>-0.97</v>
@@ -37273,40 +37273,40 @@
         <v>1924</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.4790476190476188</v>
+        <v>-0.4790476190476191</v>
       </c>
       <c r="C17" t="n">
-        <v>0.219047619047619</v>
+        <v>0.2190476190476188</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8497372742200324</v>
+        <v>0.8497372742200336</v>
       </c>
       <c r="E17" t="n">
         <v>1.970476190476191</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6985714285714282</v>
+        <v>-0.6985714285714286</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2522380952380953</v>
+        <v>-0.2522380952380951</v>
       </c>
       <c r="H17" t="n">
         <v>-1.176047619047619</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4393809523809527</v>
+        <v>-0.4393809523809525</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3318571428571428</v>
+        <v>0.3318571428571432</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7577619047619049</v>
+        <v>0.7577619047619047</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1124761904761909</v>
+        <v>0.1124761904761912</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.273476190476191</v>
+        <v>-1.273476190476192</v>
       </c>
       <c r="N17" t="n">
         <v>-0.01</v>
@@ -37317,25 +37317,25 @@
         <v>1925</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.6790476190476191</v>
+        <v>-0.6790476190476193</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.666666666666666</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.178834154351396</v>
+        <v>-2.178834154351394</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.443809523809523</v>
+        <v>-1.443809523809524</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.398571428571428</v>
+        <v>-1.398571428571429</v>
       </c>
       <c r="G18" t="n">
         <v>-1.295095238095238</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1096666666666664</v>
+        <v>0.1096666666666666</v>
       </c>
       <c r="I18" t="n">
         <v>-1.167952380952381</v>
@@ -37344,7 +37344,7 @@
         <v>-1.368142857142857</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.4993809523809523</v>
+        <v>-0.4993809523809524</v>
       </c>
       <c r="L18" t="n">
         <v>-1.55895238095238</v>
@@ -37361,25 +37361,25 @@
         <v>1926</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.7004761904761901</v>
+        <v>-0.7004761904761904</v>
       </c>
       <c r="C19" t="n">
         <v>-2.659523809523809</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.000262725779967</v>
+        <v>-2.000262725779966</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5776190476190485</v>
+        <v>0.5776190476190478</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6628571428571423</v>
+        <v>-0.6628571428571428</v>
       </c>
       <c r="G19" t="n">
         <v>-1.502238095238095</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.5546190476190479</v>
+        <v>-0.5546190476190477</v>
       </c>
       <c r="I19" t="n">
         <v>-1.160809523809524</v>
@@ -37388,10 +37388,10 @@
         <v>-1.145285714285714</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0908095238095239</v>
+        <v>-0.09080952380952402</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.608952380952381</v>
+        <v>-1.60895238095238</v>
       </c>
       <c r="M19" t="n">
         <v>-1.75204761904762</v>
@@ -37405,34 +37405,34 @@
         <v>1927</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.8433333333333332</v>
+        <v>-0.8433333333333335</v>
       </c>
       <c r="C20" t="n">
         <v>-1.030952380952381</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.185977011494253</v>
+        <v>-1.185977011494252</v>
       </c>
       <c r="E20" t="n">
         <v>-2.193809523809523</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.805714285714285</v>
+        <v>-1.805714285714286</v>
       </c>
       <c r="G20" t="n">
         <v>-2.073666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.3546190476190479</v>
+        <v>-0.3546190476190477</v>
       </c>
       <c r="I20" t="n">
         <v>-1.24652380952381</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.5881428571428573</v>
+        <v>-0.5881428571428569</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.9208095238095239</v>
+        <v>-0.920809523809524</v>
       </c>
       <c r="L20" t="n">
         <v>-1.494666666666666</v>
@@ -37449,37 +37449,37 @@
         <v>1928</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.32047619047619</v>
+        <v>-1.320476190476191</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1204761904761908</v>
+        <v>0.1204761904761905</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7083087027914612</v>
+        <v>0.7083087027914624</v>
       </c>
       <c r="E21" t="n">
-        <v>1.971904761904763</v>
+        <v>1.971904761904762</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3600000000000004</v>
+        <v>0.3599999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1365238095238096</v>
+        <v>-0.1365238095238094</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6825238095238092</v>
+        <v>0.6825238095238093</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5379523809523812</v>
+        <v>-0.5379523809523808</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.8510000000000001</v>
+        <v>-0.8509999999999998</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.08366666666666678</v>
+        <v>-0.0836666666666669</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.9975238095238093</v>
+        <v>-0.997523809523809</v>
       </c>
       <c r="M21" t="n">
         <v>-1.069190476190477</v>
@@ -37493,25 +37493,25 @@
         <v>1929</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.9319047619047615</v>
+        <v>-0.9319047619047617</v>
       </c>
       <c r="C22" t="n">
         <v>-1.548095238095238</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1459770114942534</v>
+        <v>-0.1459770114942522</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.268095238095237</v>
+        <v>-0.2680952380952376</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.022857142857142</v>
+        <v>-2.022857142857143</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6091904761904763</v>
+        <v>0.6091904761904764</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.6860476190476194</v>
+        <v>-0.6860476190476191</v>
       </c>
       <c r="I22" t="n">
         <v>-1.477952380952381</v>
@@ -37520,10 +37520,10 @@
         <v>-2.262428571428571</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.8950952380952384</v>
+        <v>-0.8950952380952385</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.140380952380952</v>
+        <v>-0.1403809523809518</v>
       </c>
       <c r="M22" t="n">
         <v>-1.369190476190477</v>
@@ -37543,10 +37543,10 @@
         <v>-1.948095238095238</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.860262725779968</v>
+        <v>-1.860262725779966</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.8680952380952374</v>
+        <v>-0.868095238095238</v>
       </c>
       <c r="F23" t="n">
         <v>-2.008571428571428</v>
@@ -37558,10 +37558,10 @@
         <v>-1.971761904761905</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.4922380952380954</v>
+        <v>-0.4922380952380951</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.692428571428572</v>
+        <v>-1.692428571428571</v>
       </c>
       <c r="K23" t="n">
         <v>-2.265095238095238</v>
@@ -37587,10 +37587,10 @@
         <v>-3.176666666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.560262725779967</v>
+        <v>-1.560262725779966</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.8252380952380944</v>
+        <v>-0.8252380952380951</v>
       </c>
       <c r="F24" t="n">
         <v>-1.737142857142857</v>
@@ -37599,22 +37599,22 @@
         <v>-1.605095238095238</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.6289047619047624</v>
+        <v>-0.6289047619047621</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.60652380952381</v>
+        <v>-1.606523809523809</v>
       </c>
       <c r="J24" t="n">
-        <v>-2.092428571428572</v>
+        <v>-2.092428571428571</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.8522380952380954</v>
+        <v>-0.8522380952380955</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.1403809523809518</v>
+        <v>-0.1403809523809515</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.9834761904761916</v>
+        <v>-0.9834761904761918</v>
       </c>
       <c r="N24" t="n">
         <v>-1.43</v>
@@ -37625,22 +37625,22 @@
         <v>1932</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.379047619047618</v>
+        <v>-2.379047619047619</v>
       </c>
       <c r="C25" t="n">
         <v>-1.195238095238095</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.8502627257799676</v>
+        <v>-0.8502627257799664</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.04380952380952292</v>
+        <v>-0.04380952380952356</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.641428571428571</v>
+        <v>-1.641428571428572</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.9379523809523811</v>
+        <v>-0.937952380952381</v>
       </c>
       <c r="H25" t="n">
         <v>-2.104619047619048</v>
@@ -37652,13 +37652,13 @@
         <v>-1.095285714285714</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3449047619047619</v>
+        <v>0.3449047619047618</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6589523809523803</v>
+        <v>-0.6589523809523801</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.444904761904762</v>
+        <v>-1.444904761904763</v>
       </c>
       <c r="N25" t="n">
         <v>-1.23</v>
@@ -37669,31 +37669,31 @@
         <v>1933</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.2504761904761906</v>
+        <v>-0.2504761904761908</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4238095238095238</v>
+        <v>-0.4238095238095241</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.735977011494253</v>
+        <v>-0.7359770114942518</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.9723809523809516</v>
+        <v>-0.9723809523809522</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.212857142857142</v>
+        <v>-1.212857142857143</v>
       </c>
       <c r="G26" t="n">
         <v>-1.623666666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.2474761904761908</v>
+        <v>-0.2474761904761905</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.9536666666666671</v>
+        <v>-0.9536666666666669</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.6252857142857143</v>
+        <v>-0.625285714285714</v>
       </c>
       <c r="K26" t="n">
         <v>-1.070809523809524</v>
@@ -37702,7 +37702,7 @@
         <v>-1.487523809523809</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.7877619047619054</v>
+        <v>-0.7877619047619058</v>
       </c>
       <c r="N26" t="n">
         <v>-0.87</v>
@@ -37719,31 +37719,31 @@
         <v>-1.095238095238095</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.364548440065682</v>
+        <v>-1.364548440065681</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0295238095238083</v>
+        <v>-0.02952380952380894</v>
       </c>
       <c r="F27" t="n">
         <v>-1.67</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2379523809523809</v>
+        <v>-0.2379523809523807</v>
       </c>
       <c r="H27" t="n">
         <v>-1.276047619047619</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.310809523809524</v>
+        <v>-0.3108095238095237</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.5395714285714287</v>
+        <v>-0.5395714285714284</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.6565238095238096</v>
+        <v>-0.6565238095238097</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5124761904761911</v>
+        <v>0.5124761904761914</v>
       </c>
       <c r="M27" t="n">
         <v>1.59795238095238</v>
@@ -37757,40 +37757,40 @@
         <v>1935</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9780952380952387</v>
+        <v>0.9780952380952385</v>
       </c>
       <c r="C28" t="n">
         <v>1.061904761904762</v>
       </c>
       <c r="D28" t="n">
-        <v>0.678308702791461</v>
+        <v>0.6783087027914624</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6419047619047628</v>
+        <v>0.6419047619047621</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.355714285714285</v>
+        <v>-1.355714285714286</v>
       </c>
       <c r="G28" t="n">
         <v>-0.6522380952380951</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.8474761904761907</v>
+        <v>-0.8474761904761906</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.8250952380952382</v>
+        <v>-0.825095238095238</v>
       </c>
       <c r="J28" t="n">
         <v>-2.696714285714286</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.02795238095238111</v>
+        <v>-0.02795238095238124</v>
       </c>
       <c r="L28" t="n">
         <v>-2.016095238095237</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9265238095238088</v>
+        <v>0.9265238095238085</v>
       </c>
       <c r="N28" t="n">
         <v>-0.34</v>
@@ -37801,37 +37801,37 @@
         <v>1936</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.5361904761904762</v>
+        <v>-0.5361904761904766</v>
       </c>
       <c r="C29" t="n">
         <v>-1.10952380952381</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.421691297208539</v>
+        <v>-2.421691297208537</v>
       </c>
       <c r="E29" t="n">
-        <v>0.29904761904762</v>
+        <v>0.2990476190476193</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.341428571428571</v>
+        <v>-2.341428571428572</v>
       </c>
       <c r="G29" t="n">
         <v>-1.223666666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.9903333333333337</v>
+        <v>-0.9903333333333334</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2463333333333332</v>
+        <v>0.2463333333333334</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.353857142857143</v>
+        <v>-1.353857142857142</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3863333333333333</v>
+        <v>0.3863333333333331</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.2732380952380946</v>
+        <v>-0.2732380952380943</v>
       </c>
       <c r="M29" t="n">
         <v>-1.744904761904763</v>
@@ -37851,34 +37851,34 @@
         <v>-3.180952380952381</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.6216912972085389</v>
+        <v>-0.6216912972085377</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.215238095238094</v>
+        <v>-1.215238095238095</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.6985714285714283</v>
+        <v>-0.6985714285714287</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.723666666666667</v>
+        <v>-1.723666666666666</v>
       </c>
       <c r="H30" t="n">
         <v>-1.247476190476191</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.4822380952380954</v>
+        <v>-0.4822380952380952</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.5967142857142856</v>
+        <v>-0.5967142857142853</v>
       </c>
       <c r="K30" t="n">
         <v>-1.955095238095238</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.4589523809523805</v>
+        <v>-0.4589523809523803</v>
       </c>
       <c r="M30" t="n">
-        <v>0.283666666666666</v>
+        <v>0.2836666666666657</v>
       </c>
       <c r="N30" t="n">
         <v>-1.15</v>
@@ -37889,37 +37889,37 @@
         <v>1938</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1638095238095243</v>
+        <v>0.163809523809524</v>
       </c>
       <c r="C31" t="n">
         <v>1.79047619047619</v>
       </c>
       <c r="D31" t="n">
-        <v>1.264022988505747</v>
+        <v>1.264022988505748</v>
       </c>
       <c r="E31" t="n">
-        <v>2.99904761904762</v>
+        <v>2.999047619047619</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2557142857142853</v>
+        <v>-0.2557142857142858</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.780809523809524</v>
+        <v>-0.7808095238095236</v>
       </c>
       <c r="H31" t="n">
         <v>-1.147476190476191</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.9250952380952383</v>
+        <v>-0.9250952380952379</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.5967142857142859</v>
+        <v>-0.5967142857142855</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.4550952380952383</v>
+        <v>-0.4550952380952384</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3267619047619053</v>
+        <v>0.3267619047619056</v>
       </c>
       <c r="M31" t="n">
         <v>-2.144904761904763</v>
@@ -37939,22 +37939,22 @@
         <v>-2.080952380952381</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2931198686371105</v>
+        <v>-0.2931198686371092</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.6580952380952371</v>
+        <v>-0.6580952380952377</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.7557142857142853</v>
+        <v>-0.7557142857142859</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5763333333333334</v>
+        <v>0.5763333333333335</v>
       </c>
       <c r="H32" t="n">
         <v>-1.818904761904762</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.9393809523809525</v>
+        <v>-0.9393809523809524</v>
       </c>
       <c r="J32" t="n">
         <v>-1.111</v>
@@ -37963,10 +37963,10 @@
         <v>-1.455095238095238</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.05895238095238055</v>
+        <v>-0.0589523809523803</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.3449047619047629</v>
+        <v>-0.3449047619047632</v>
       </c>
       <c r="N32" t="n">
         <v>-1.02</v>
@@ -37977,40 +37977,40 @@
         <v>1940</v>
       </c>
       <c r="B33" t="n">
-        <v>0.006666666666667201</v>
+        <v>0.006666666666666947</v>
       </c>
       <c r="C33" t="n">
         <v>-2.295238095238096</v>
       </c>
       <c r="D33" t="n">
-        <v>-2.578834154351397</v>
+        <v>-2.578834154351395</v>
       </c>
       <c r="E33" t="n">
         <v>-2.20095238095238</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.712857142857142</v>
+        <v>-1.712857142857143</v>
       </c>
       <c r="G33" t="n">
         <v>-1.209380952380952</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.190333333333334</v>
+        <v>-1.190333333333333</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3536666666666669</v>
+        <v>-0.3536666666666666</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02528571428571436</v>
+        <v>-0.02528571428571397</v>
       </c>
       <c r="K33" t="n">
-        <v>-1.142238095238095</v>
+        <v>-1.142238095238096</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.258952380952381</v>
+        <v>-1.25895238095238</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.2877619047619055</v>
+        <v>-0.2877619047619057</v>
       </c>
       <c r="N33" t="n">
         <v>-1.19</v>
@@ -38021,37 +38021,37 @@
         <v>1941</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.336190476190476</v>
+        <v>-0.3361904761904762</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.209523809523809</v>
+        <v>-1.20952380952381</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02116584564860422</v>
+        <v>0.02116584564860549</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.043809523809523</v>
+        <v>-2.043809523809524</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.9557142857142852</v>
+        <v>-0.9557142857142856</v>
       </c>
       <c r="G34" t="n">
         <v>-2.123666666666666</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.7760476190476194</v>
+        <v>-0.776047619047619</v>
       </c>
       <c r="I34" t="n">
         <v>-1.582238095238095</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.066714285714286</v>
+        <v>-1.066714285714285</v>
       </c>
       <c r="K34" t="n">
         <v>-1.455095238095238</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.8589523809523805</v>
+        <v>-0.8589523809523802</v>
       </c>
       <c r="M34" t="n">
         <v>-1.430619047619049</v>
@@ -38071,34 +38071,34 @@
         <v>-1.723809523809524</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.007405582922824</v>
+        <v>-1.007405582922823</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.6438095238095228</v>
+        <v>-0.6438095238095235</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2557142857142853</v>
+        <v>-0.2557142857142858</v>
       </c>
       <c r="G35" t="n">
         <v>-1.023666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>0.06680952380952358</v>
+        <v>0.0668095238095238</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.6536666666666671</v>
+        <v>-0.6536666666666668</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.6095714285714287</v>
+        <v>-0.6095714285714282</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2177619047619046</v>
+        <v>0.2177619047619044</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.4146666666666664</v>
+        <v>-0.4146666666666662</v>
       </c>
       <c r="M35" t="n">
-        <v>-2.263476190476191</v>
+        <v>-2.263476190476192</v>
       </c>
       <c r="N35" t="n">
         <v>-0.88</v>
@@ -38112,10 +38112,10 @@
         <v>-1.069047619047619</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.156666666666666</v>
+        <v>-1.156666666666667</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.98311986863711</v>
+        <v>-1.983119868637109</v>
       </c>
       <c r="E36" t="n">
         <v>-1.033809523809523</v>
@@ -38124,7 +38124,7 @@
         <v>-2.502857142857143</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.2136666666666668</v>
+        <v>-0.2136666666666666</v>
       </c>
       <c r="H36" t="n">
         <v>-1.380333333333333</v>
@@ -38133,16 +38133,16 @@
         <v>-2.143666666666667</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.8709999999999999</v>
+        <v>-0.8709999999999996</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.9879523809523812</v>
+        <v>-0.9879523809523814</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.277523809523809</v>
+        <v>-0.2775238095238088</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.4634761904761913</v>
+        <v>-0.4634761904761915</v>
       </c>
       <c r="N36" t="n">
         <v>-1.17</v>
@@ -38153,34 +38153,34 @@
         <v>1944</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.114761904761904</v>
+        <v>-1.114761904761905</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.8452380952380955</v>
+        <v>-0.8452380952380957</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.6431198686371103</v>
+        <v>-0.6431198686371091</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5776190476190486</v>
+        <v>0.5776190476190479</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.662857142857142</v>
+        <v>-1.662857142857143</v>
       </c>
       <c r="G37" t="n">
         <v>-1.487952380952381</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.1974761904761908</v>
+        <v>-0.1974761904761906</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.089380952380953</v>
+        <v>-1.089380952380952</v>
       </c>
       <c r="J37" t="n">
         <v>-1.359571428571428</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.9050952380952381</v>
+        <v>-0.9050952380952382</v>
       </c>
       <c r="L37" t="n">
         <v>-1.266095238095237</v>
@@ -38197,13 +38197,13 @@
         <v>1945</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.5590476190476187</v>
+        <v>-0.5590476190476189</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.6609523809523807</v>
+        <v>-0.660952380952381</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.001691297208539</v>
+        <v>-2.001691297208537</v>
       </c>
       <c r="E38" t="n">
         <v>-1.009523809523809</v>
@@ -38218,19 +38218,19 @@
         <v>-1.841761904761905</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7949047619047617</v>
+        <v>0.794904761904762</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.9467142857142858</v>
+        <v>-0.9467142857142853</v>
       </c>
       <c r="K38" t="n">
         <v>-2.50652380952381</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.667523809523809</v>
+        <v>-0.6675238095238087</v>
       </c>
       <c r="M38" t="n">
-        <v>-3.339190476190476</v>
+        <v>-3.339190476190477</v>
       </c>
       <c r="N38" t="n">
         <v>-1.37</v>
@@ -38247,25 +38247,25 @@
         <v>-1.932380952380953</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3302627257799678</v>
+        <v>-0.3302627257799666</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.638095238095237</v>
+        <v>-0.6380952380952377</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.07857142857142817</v>
+        <v>-0.07857142857142867</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2322380952380954</v>
+        <v>-0.2322380952380952</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3296666666666663</v>
+        <v>0.3296666666666664</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.6908095238095241</v>
+        <v>-0.6908095238095238</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.6910000000000001</v>
+        <v>-0.6909999999999997</v>
       </c>
       <c r="K39" t="n">
         <v>-1.679380952380953</v>
@@ -38291,34 +38291,34 @@
         <v>-1.946666666666667</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.7016912972085391</v>
+        <v>-0.7016912972085378</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.9809523809523799</v>
+        <v>-0.9809523809523805</v>
       </c>
       <c r="F40" t="n">
         <v>-1.207142857142857</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.5050952380952382</v>
+        <v>-0.5050952380952379</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.9860476190476195</v>
+        <v>-0.9860476190476193</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.4493809523809525</v>
+        <v>-0.4493809523809523</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.9067142857142858</v>
+        <v>-0.9067142857142854</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.3093809523809525</v>
+        <v>-0.3093809523809526</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.7260952380952373</v>
+        <v>-0.726095238095237</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.1549047619047629</v>
+        <v>-0.1549047619047632</v>
       </c>
       <c r="N40" t="n">
         <v>-0.9399999999999999</v>
@@ -38329,19 +38329,19 @@
         <v>1948</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.07476190476190427</v>
+        <v>-0.07476190476190452</v>
       </c>
       <c r="C41" t="n">
         <v>-1.033809523809524</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2459770114942536</v>
+        <v>-0.2459770114942523</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5823809523809514</v>
+        <v>-0.5823809523809521</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4371428571428568</v>
+        <v>-0.4371428571428573</v>
       </c>
       <c r="G41" t="n">
         <v>-1.147952380952381</v>
@@ -38353,16 +38353,16 @@
         <v>-1.020809523809524</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.8352857142857145</v>
+        <v>-0.8352857142857141</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.109380952380952</v>
+        <v>-1.109380952380953</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.068952380952381</v>
+        <v>-1.06895238095238</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.397761904761905</v>
+        <v>-1.397761904761906</v>
       </c>
       <c r="N41" t="n">
         <v>-0.68</v>
@@ -38376,37 +38376,37 @@
         <v>-1.989047619047619</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.5909523809523805</v>
+        <v>-0.5909523809523807</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.660262725779967</v>
+        <v>-1.660262725779966</v>
       </c>
       <c r="E42" t="n">
         <v>-2.396666666666666</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.9657142857142851</v>
+        <v>-0.9657142857142856</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03776190476190454</v>
+        <v>0.03776190476190473</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6996666666666663</v>
+        <v>0.6996666666666665</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.149380952380953</v>
+        <v>-1.149380952380952</v>
       </c>
       <c r="J42" t="n">
-        <v>-1.506714285714286</v>
+        <v>-1.506714285714285</v>
       </c>
       <c r="K42" t="n">
-        <v>0.462047619047619</v>
+        <v>0.4620476190476189</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.126095238095238</v>
+        <v>-1.126095238095237</v>
       </c>
       <c r="M42" t="n">
-        <v>-1.840619047619048</v>
+        <v>-1.840619047619049</v>
       </c>
       <c r="N42" t="n">
         <v>-1</v>
@@ -38417,40 +38417,40 @@
         <v>1950</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.06047619047619</v>
+        <v>-1.060476190476191</v>
       </c>
       <c r="C43" t="n">
         <v>-2.362380952380952</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.545977011494253</v>
+        <v>-1.545977011494252</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.353809523809523</v>
+        <v>-1.353809523809524</v>
       </c>
       <c r="F43" t="n">
         <v>1.077142857142857</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.990809523809524</v>
+        <v>-0.9908095238095235</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.8289047619047624</v>
+        <v>-0.8289047619047621</v>
       </c>
       <c r="I43" t="n">
         <v>-1.920809523809524</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.6352857142857145</v>
+        <v>-0.635285714285714</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.2522380952380954</v>
+        <v>-0.2522380952380955</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.3832380952380948</v>
+        <v>-0.3832380952380945</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.226333333333334</v>
+        <v>-1.226333333333335</v>
       </c>
       <c r="N43" t="n">
         <v>-0.96</v>
@@ -38461,37 +38461,37 @@
         <v>1951</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.137619047619047</v>
+        <v>-1.137619047619048</v>
       </c>
       <c r="C44" t="n">
         <v>-1.410952380952381</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01973727422003232</v>
+        <v>0.01973727422003359</v>
       </c>
       <c r="E44" t="n">
-        <v>0.226190476190477</v>
+        <v>0.2261904761904764</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.914285714285713</v>
+        <v>-1.914285714285714</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.482238095238096</v>
+        <v>-2.482238095238095</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.3774761904761909</v>
+        <v>-0.3774761904761906</v>
       </c>
       <c r="I44" t="n">
         <v>-1.812238095238095</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.9124285714285716</v>
+        <v>-0.9124285714285713</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.2422380952380951</v>
+        <v>-0.2422380952380953</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.5889523809523803</v>
+        <v>-0.58895238095238</v>
       </c>
       <c r="M44" t="n">
         <v>-2.289190476190477</v>
@@ -38508,37 +38508,37 @@
         <v>-2.523333333333333</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.3966666666666665</v>
+        <v>-0.3966666666666668</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.365977011494253</v>
+        <v>-1.365977011494252</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.5166666666666657</v>
+        <v>-0.5166666666666664</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.8428571428571425</v>
+        <v>-0.8428571428571431</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.6108095238095237</v>
+        <v>-0.6108095238095236</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.934619047619048</v>
+        <v>-1.934619047619047</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.08223809523809544</v>
+        <v>-0.08223809523809519</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.4681428571428571</v>
+        <v>-0.4681428571428568</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.02795238095238111</v>
+        <v>-0.02795238095238124</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03961904761904821</v>
+        <v>0.03961904761904846</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.1320476190476201</v>
+        <v>-0.1320476190476203</v>
       </c>
       <c r="N45" t="n">
         <v>-0.74</v>
@@ -38555,34 +38555,34 @@
         <v>-1.610952380952381</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.9231198686371107</v>
+        <v>-0.9231198686371095</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.916666666666666</v>
+        <v>-0.9166666666666666</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.571428571428571</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.5393809523809522</v>
+        <v>-0.5393809523809521</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.7346190476190479</v>
+        <v>-0.7346190476190477</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.2122380952380955</v>
+        <v>-0.2122380952380952</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.7124285714285713</v>
+        <v>-0.712428571428571</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.9136666666666668</v>
+        <v>-0.913666666666667</v>
       </c>
       <c r="L46" t="n">
-        <v>0.6253333333333339</v>
+        <v>0.6253333333333341</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.7749047619047627</v>
+        <v>-0.7749047619047629</v>
       </c>
       <c r="N46" t="n">
         <v>-0.76</v>
@@ -38596,25 +38596,25 @@
         <v>-1.323333333333333</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2747619047619046</v>
+        <v>0.2747619047619043</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8483087027914612</v>
+        <v>0.8483087027914625</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.63095238095238</v>
+        <v>-1.630952380952381</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1857142857142856</v>
+        <v>-0.1857142857142861</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4606190476190477</v>
+        <v>0.4606190476190478</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.7489047619047622</v>
+        <v>-0.7489047619047621</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.069380952380953</v>
+        <v>-1.069380952380952</v>
       </c>
       <c r="J47" t="n">
         <v>-1.625285714285714</v>
@@ -38626,7 +38626,7 @@
         <v>1.253904761904763</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.2749047619047627</v>
+        <v>-0.2749047619047629</v>
       </c>
       <c r="N47" t="n">
         <v>-0.48</v>
@@ -38637,40 +38637,40 @@
         <v>1955</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.9090476190476188</v>
+        <v>-0.909047619047619</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7890476190476193</v>
+        <v>0.7890476190476191</v>
       </c>
       <c r="D48" t="n">
-        <v>0.105451559934318</v>
+        <v>0.1054515599343192</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5119047619047628</v>
+        <v>0.5119047619047621</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2428571428571431</v>
+        <v>0.2428571428571426</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.8965238095238094</v>
+        <v>-0.8965238095238092</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.9631904761904766</v>
+        <v>-0.9631904761904764</v>
       </c>
       <c r="I48" t="n">
-        <v>0.116333333333333</v>
+        <v>0.1163333333333333</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.3981428571428573</v>
+        <v>-0.398142857142857</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3434761904761904</v>
+        <v>0.3434761904761903</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.760380952380952</v>
+        <v>-0.7603809523809517</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.2606190476190484</v>
+        <v>-0.2606190476190487</v>
       </c>
       <c r="N48" t="n">
         <v>-0.17</v>
@@ -38684,37 +38684,37 @@
         <v>1.733809523809524</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.5252380952380952</v>
+        <v>-0.5252380952380954</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.62311986863711</v>
+        <v>-1.623119868637109</v>
       </c>
       <c r="E49" t="n">
         <v>2.740476190476191</v>
       </c>
       <c r="F49" t="n">
-        <v>0.08571428571428605</v>
+        <v>0.08571428571428553</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3034761904761905</v>
+        <v>0.3034761904761906</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.2203333333333336</v>
+        <v>-0.2203333333333334</v>
       </c>
       <c r="I49" t="n">
         <v>-1.069380952380953</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.6981428571428572</v>
+        <v>-0.6981428571428568</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2277619047619045</v>
+        <v>0.2277619047619044</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01104761904761948</v>
+        <v>0.01104761904761973</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.5463333333333343</v>
+        <v>-0.5463333333333347</v>
       </c>
       <c r="N49" t="n">
         <v>0.03</v>
@@ -38728,34 +38728,34 @@
         <v>-1.023333333333333</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.03952380952380936</v>
+        <v>-0.03952380952380961</v>
       </c>
       <c r="D50" t="n">
-        <v>1.17688013136289</v>
+        <v>1.176880131362891</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6404761904761911</v>
+        <v>0.6404761904761905</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01428571428571481</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.7965238095238095</v>
+        <v>-0.7965238095238093</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.00604761904762</v>
+        <v>-1.006047619047619</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1463333333333331</v>
+        <v>0.1463333333333334</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.7124285714285714</v>
+        <v>-0.7124285714285711</v>
       </c>
       <c r="K50" t="n">
         <v>-1.313666666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.4460952380952377</v>
+        <v>-0.4460952380952374</v>
       </c>
       <c r="M50" t="n">
         <v>-2.03204761904762</v>
@@ -38772,37 +38772,37 @@
         <v>-1.751904761904761</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8461904761904765</v>
+        <v>0.8461904761904763</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5768801313628895</v>
+        <v>0.5768801313628907</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.888095238095237</v>
+        <v>-1.888095238095238</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.6999999999999996</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.339380952380953</v>
+        <v>-1.339380952380952</v>
       </c>
       <c r="H51" t="n">
         <v>-1.520333333333334</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.6122380952380956</v>
+        <v>-0.6122380952380954</v>
       </c>
       <c r="J51" t="n">
         <v>-1.911</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8706190476190476</v>
+        <v>0.8706190476190475</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.08895238095238055</v>
+        <v>-0.0889523809523803</v>
       </c>
       <c r="M51" t="n">
-        <v>0.4822380952380944</v>
+        <v>0.4822380952380941</v>
       </c>
       <c r="N51" t="n">
         <v>-0.59</v>
@@ -38813,16 +38813,16 @@
         <v>1959</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.1233333333333331</v>
+        <v>-0.1233333333333333</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.7966666666666666</v>
+        <v>-0.7966666666666669</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2768801313628898</v>
+        <v>0.2768801313628911</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2166666666666656</v>
+        <v>-0.2166666666666663</v>
       </c>
       <c r="F52" t="n">
         <v>-2.657142857142857</v>
@@ -38831,22 +38831,22 @@
         <v>-2.010809523809523</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.7631904761904765</v>
+        <v>-0.7631904761904763</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.9979523809523813</v>
+        <v>-0.997952380952381</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.1681428571428571</v>
+        <v>-0.1681428571428568</v>
       </c>
       <c r="K52" t="n">
-        <v>-1.615095238095238</v>
+        <v>-1.615095238095239</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.4175238095238089</v>
+        <v>-0.4175238095238086</v>
       </c>
       <c r="M52" t="n">
-        <v>0.1393809523809517</v>
+        <v>0.1393809523809514</v>
       </c>
       <c r="N52" t="n">
         <v>-0.78</v>
@@ -38857,40 +38857,40 @@
         <v>1960</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.3233333333333334</v>
+        <v>-0.3233333333333336</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.7966666666666663</v>
+        <v>-0.7966666666666666</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.9374055829228247</v>
+        <v>-0.9374055829228235</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.945238095238094</v>
+        <v>-0.9452380952380947</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.2428571428571423</v>
+        <v>-0.2428571428571428</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2320476190476189</v>
+        <v>0.2320476190476191</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.334619047619048</v>
+        <v>-0.3346190476190478</v>
       </c>
       <c r="I53" t="n">
         <v>-1.155095238095238</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.1410000000000002</v>
+        <v>-0.1409999999999998</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4863333333333334</v>
+        <v>0.4863333333333332</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.5360952380952375</v>
+        <v>-0.5360952380952373</v>
       </c>
       <c r="M53" t="n">
-        <v>-2.093476190476191</v>
+        <v>-2.093476190476192</v>
       </c>
       <c r="N53" t="n">
         <v>-0.57</v>
@@ -38901,16 +38901,16 @@
         <v>1961</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.8847619047619045</v>
+        <v>-0.8847619047619047</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.7723809523809523</v>
+        <v>-0.7723809523809526</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.084548440065682</v>
+        <v>-1.084548440065681</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.8066666666666656</v>
+        <v>-0.8066666666666663</v>
       </c>
       <c r="F54" t="n">
         <v>-1.104285714285714</v>
@@ -38919,22 +38919,22 @@
         <v>-1.372238095238095</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.7674761904761908</v>
+        <v>-0.7674761904761905</v>
       </c>
       <c r="I54" t="n">
         <v>-1.102238095238095</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.8024285714285716</v>
+        <v>-0.8024285714285712</v>
       </c>
       <c r="K54" t="n">
-        <v>0.8963333333333334</v>
+        <v>0.8963333333333333</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.05038095238095203</v>
+        <v>-0.05038095238095178</v>
       </c>
       <c r="M54" t="n">
-        <v>0.1065238095238085</v>
+        <v>0.1065238095238083</v>
       </c>
       <c r="N54" t="n">
         <v>-0.65</v>
@@ -38945,40 +38945,40 @@
         <v>1962</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5723809523809528</v>
+        <v>0.5723809523809525</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9866666666666664</v>
+        <v>-0.9866666666666666</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1583087027914607</v>
+        <v>0.158308702791462</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5209523809523799</v>
+        <v>-0.5209523809523805</v>
       </c>
       <c r="F55" t="n">
-        <v>1.367142857142858</v>
+        <v>1.367142857142857</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6134761904761906</v>
+        <v>0.6134761904761908</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4610952380952377</v>
+        <v>0.4610952380952379</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.673666666666667</v>
+        <v>-0.6736666666666667</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.6867142857142856</v>
+        <v>-0.6867142857142854</v>
       </c>
       <c r="K55" t="n">
         <v>1.224904761904762</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.2646666666666661</v>
+        <v>-0.2646666666666658</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.9506190476190485</v>
+        <v>-0.9506190476190487</v>
       </c>
       <c r="N55" t="n">
         <v>0.03</v>
@@ -38989,40 +38989,40 @@
         <v>1963</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.6133333333333331</v>
+        <v>-0.6133333333333333</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5133333333333331</v>
+        <v>0.5133333333333329</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.184548440065682</v>
+        <v>-1.18454844006568</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.749523809523808</v>
+        <v>-1.749523809523809</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.175714285714285</v>
+        <v>-1.175714285714286</v>
       </c>
       <c r="G56" t="n">
         <v>-1.057952380952381</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.4389047619047623</v>
+        <v>-0.4389047619047621</v>
       </c>
       <c r="I56" t="n">
-        <v>-1.659380952380953</v>
+        <v>-1.659380952380952</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.2867142857142856</v>
+        <v>-0.2867142857142853</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.2322380952380951</v>
+        <v>-0.2322380952380952</v>
       </c>
       <c r="L56" t="n">
         <v>-1.621809523809523</v>
       </c>
       <c r="M56" t="n">
-        <v>-2.007761904761905</v>
+        <v>-2.007761904761906</v>
       </c>
       <c r="N56" t="n">
         <v>-0.96</v>
@@ -39036,22 +39036,22 @@
         <v>-2.571904761904761</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.8880952380952384</v>
+        <v>-0.8880952380952386</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.7002627257799675</v>
+        <v>-0.7002627257799663</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.079523809523808</v>
+        <v>-1.079523809523809</v>
       </c>
       <c r="F57" t="n">
         <v>-1.442857142857143</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.6679523809523811</v>
+        <v>-0.667952380952381</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5082380952380948</v>
+        <v>0.508238095238095</v>
       </c>
       <c r="I57" t="n">
         <v>-1.197952380952381</v>
@@ -39060,13 +39060,13 @@
         <v>-1.241</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.8436666666666668</v>
+        <v>-0.8436666666666669</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.817523809523809</v>
+        <v>-0.8175238095238087</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.189190476190477</v>
+        <v>-0.1891904761904772</v>
       </c>
       <c r="N57" t="n">
         <v>-0.93</v>
@@ -39077,37 +39077,37 @@
         <v>1965</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4480952380952384</v>
+        <v>0.4480952380952381</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.682380952380952</v>
+        <v>-1.682380952380953</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.1659770114942532</v>
+        <v>-0.165977011494252</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7880952380952372</v>
+        <v>-0.7880952380952378</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.314285714285714</v>
+        <v>-1.314285714285715</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.7965238095238095</v>
+        <v>-0.7965238095238094</v>
       </c>
       <c r="H58" t="n">
         <v>-1.563190476190476</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.9265238095238101</v>
+        <v>-0.9265238095238095</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.8695714285714288</v>
+        <v>-0.8695714285714283</v>
       </c>
       <c r="K58" t="n">
-        <v>-1.799380952380952</v>
+        <v>-1.799380952380953</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.8175238095238092</v>
+        <v>-0.817523809523809</v>
       </c>
       <c r="M58" t="n">
         <v>-1.23204761904762</v>
@@ -39121,37 +39121,37 @@
         <v>1966</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8519047619047616</v>
+        <v>-0.8519047619047618</v>
       </c>
       <c r="C59" t="n">
-        <v>1.174761904761905</v>
+        <v>1.174761904761904</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6625944170771755</v>
+        <v>0.6625944170771767</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3880952380952372</v>
+        <v>-0.3880952380952379</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.685714285714285</v>
+        <v>-1.685714285714286</v>
       </c>
       <c r="G59" t="n">
         <v>-1.025095238095238</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.634619047619048</v>
+        <v>-0.6346190476190477</v>
       </c>
       <c r="I59" t="n">
         <v>-1.640809523809524</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.6252857142857143</v>
+        <v>-0.625285714285714</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.9993809523809524</v>
+        <v>-0.9993809523809525</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.046095238095238</v>
+        <v>-1.046095238095237</v>
       </c>
       <c r="M59" t="n">
         <v>-1.189190476190477</v>
@@ -39165,19 +39165,19 @@
         <v>1967</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.9519047619047617</v>
+        <v>-0.951904761904762</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.682380952380952</v>
+        <v>-1.682380952380953</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2483087027914614</v>
+        <v>0.2483087027914626</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2166666666666658</v>
+        <v>-0.2166666666666664</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5857142857142851</v>
+        <v>-0.5857142857142855</v>
       </c>
       <c r="G60" t="n">
         <v>-1.910809523809524</v>
@@ -39186,19 +39186,19 @@
         <v>-1.306047619047619</v>
       </c>
       <c r="I60" t="n">
-        <v>1.060619047619047</v>
+        <v>1.060619047619048</v>
       </c>
       <c r="J60" t="n">
         <v>-1.368142857142857</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.3008095238095241</v>
+        <v>-0.3008095238095242</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.820380952380952</v>
+        <v>-0.8203809523809518</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.3920476190476196</v>
+        <v>-0.3920476190476198</v>
       </c>
       <c r="N60" t="n">
         <v>-0.6899999999999999</v>
@@ -39215,28 +39215,28 @@
         <v>-1.128095238095238</v>
       </c>
       <c r="D61" t="n">
-        <v>2.01688013136289</v>
+        <v>2.016880131362891</v>
       </c>
       <c r="E61" t="n">
-        <v>0.08047619047619163</v>
+        <v>0.08047619047619101</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3971428571428578</v>
+        <v>0.3971428571428573</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.08509523809523808</v>
+        <v>-0.08509523809523789</v>
       </c>
       <c r="H61" t="n">
-        <v>-1.223190476190477</v>
+        <v>-1.223190476190476</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.18652380952381</v>
+        <v>-0.1865238095238097</v>
       </c>
       <c r="J61" t="n">
         <v>-1.343857142857143</v>
       </c>
       <c r="K61" t="n">
-        <v>-1.202238095238095</v>
+        <v>-1.202238095238096</v>
       </c>
       <c r="L61" t="n">
         <v>-1.334666666666666</v>
@@ -39256,16 +39256,16 @@
         <v>-1.011904761904762</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.242380952380952</v>
+        <v>-1.242380952380953</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.7259770114942532</v>
+        <v>-0.725977011494252</v>
       </c>
       <c r="E62" t="n">
         <v>-1.233809523809523</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.4171428571428566</v>
+        <v>-0.4171428571428571</v>
       </c>
       <c r="G62" t="n">
         <v>-2.270809523809524</v>
@@ -39274,16 +39274,16 @@
         <v>-1.537476190476191</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.543666666666667</v>
+        <v>-0.5436666666666667</v>
       </c>
       <c r="J62" t="n">
-        <v>1.113285714285714</v>
+        <v>1.113285714285715</v>
       </c>
       <c r="K62" t="n">
         <v>-1.745095238095238</v>
       </c>
       <c r="L62" t="n">
-        <v>0.3939047619047625</v>
+        <v>0.3939047619047628</v>
       </c>
       <c r="M62" t="n">
         <v>1.022238095238094</v>
@@ -39297,40 +39297,40 @@
         <v>1970</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8880952380952384</v>
+        <v>0.8880952380952382</v>
       </c>
       <c r="C63" t="n">
         <v>-1.242380952380953</v>
       </c>
       <c r="D63" t="n">
-        <v>1.145451559934318</v>
+        <v>1.145451559934319</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1661904761904773</v>
+        <v>0.1661904761904767</v>
       </c>
       <c r="F63" t="n">
         <v>-1.66</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02919047619047621</v>
+        <v>0.0291904761904764</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4910952380952378</v>
+        <v>0.491095238095238</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1863333333333332</v>
+        <v>0.1863333333333334</v>
       </c>
       <c r="J63" t="n">
-        <v>0.02757142857142852</v>
+        <v>0.0275714285714289</v>
       </c>
       <c r="K63" t="n">
-        <v>0.06776190476190459</v>
+        <v>0.06776190476190447</v>
       </c>
       <c r="L63" t="n">
-        <v>0.07961904761904812</v>
+        <v>0.07961904761904837</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.206333333333334</v>
+        <v>-0.2063333333333343</v>
       </c>
       <c r="N63" t="n">
         <v>-0</v>
@@ -39341,40 +39341,40 @@
         <v>1971</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7166666666666666</v>
+        <v>0.7166666666666662</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7290476190476193</v>
+        <v>0.7290476190476191</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.04026272577996742</v>
+        <v>-0.04026272577996615</v>
       </c>
       <c r="E64" t="n">
-        <v>0.06619047619047727</v>
+        <v>0.06619047619047665</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8400000000000006</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="G64" t="n">
         <v>1.672047619047619</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.5803333333333337</v>
+        <v>-0.5803333333333335</v>
       </c>
       <c r="I64" t="n">
-        <v>0.4706190476190474</v>
+        <v>0.4706190476190477</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.4567142857142857</v>
+        <v>-0.4567142857142854</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.4022380952380953</v>
+        <v>-0.4022380952380954</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.3203809523809516</v>
+        <v>-0.3203809523809514</v>
       </c>
       <c r="M64" t="n">
-        <v>0.07938095238095169</v>
+        <v>0.07938095238095144</v>
       </c>
       <c r="N64" t="n">
         <v>0.23</v>
@@ -39385,16 +39385,16 @@
         <v>1972</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.354761904761904</v>
+        <v>-1.354761904761905</v>
       </c>
       <c r="C65" t="n">
         <v>-1.59952380952381</v>
       </c>
       <c r="D65" t="n">
-        <v>1.074022988505746</v>
+        <v>1.074022988505748</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03761904761904868</v>
+        <v>0.03761904761904804</v>
       </c>
       <c r="F65" t="n">
         <v>-1.26</v>
@@ -39403,16 +39403,16 @@
         <v>-2.427952380952381</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.1517619047619051</v>
+        <v>-0.1517619047619048</v>
       </c>
       <c r="I65" t="n">
         <v>-1.872238095238095</v>
       </c>
       <c r="J65" t="n">
-        <v>0.3418571428571427</v>
+        <v>0.3418571428571431</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0106190476190474</v>
+        <v>0.01061904761904727</v>
       </c>
       <c r="L65" t="n">
         <v>1.379619047619048</v>
@@ -39429,40 +39429,40 @@
         <v>1973</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8261904761904759</v>
+        <v>-0.8261904761904761</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.470952380952381</v>
+        <v>-0.4709523809523812</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3025944170771752</v>
+        <v>0.3025944170771765</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3623809523809514</v>
+        <v>-0.3623809523809521</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.1742857142857139</v>
+        <v>-0.1742857142857144</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1708095238095238</v>
+        <v>-0.1708095238095236</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.7660476190476196</v>
+        <v>-0.7660476190476191</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.1993809523809527</v>
+        <v>-0.1993809523809524</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2704285714285714</v>
+        <v>0.2704285714285718</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.2450952380952383</v>
+        <v>-0.2450952380952384</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5367619047619051</v>
+        <v>0.5367619047619054</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.2206190476190482</v>
+        <v>-0.2206190476190485</v>
       </c>
       <c r="N66" t="n">
         <v>-0.19</v>
@@ -39476,37 +39476,37 @@
         <v>-1.469047619047619</v>
       </c>
       <c r="C67" t="n">
-        <v>1.400476190476191</v>
+        <v>1.40047619047619</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.354548440065682</v>
+        <v>-1.354548440065681</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9804761904761917</v>
+        <v>0.9804761904761911</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6171428571428568</v>
+        <v>-0.6171428571428573</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6136666666666665</v>
+        <v>-0.6136666666666662</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5625238095238093</v>
+        <v>0.5625238095238095</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.7279523809523811</v>
+        <v>-0.7279523809523809</v>
       </c>
       <c r="J67" t="n">
-        <v>0.7132857142857142</v>
+        <v>0.7132857142857146</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.2465238095238098</v>
+        <v>-0.24652380952381</v>
       </c>
       <c r="L67" t="n">
-        <v>0.6224761904761911</v>
+        <v>0.6224761904761913</v>
       </c>
       <c r="M67" t="n">
-        <v>0.8793809523809516</v>
+        <v>0.8793809523809514</v>
       </c>
       <c r="N67" t="n">
         <v>0.01</v>
@@ -39517,40 +39517,40 @@
         <v>1975</v>
       </c>
       <c r="B68" t="n">
-        <v>1.402380952380953</v>
+        <v>1.402380952380952</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5861904761904759</v>
+        <v>0.5861904761904757</v>
       </c>
       <c r="D68" t="n">
-        <v>1.345451559934318</v>
+        <v>1.345451559934319</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3804761904761917</v>
+        <v>0.3804761904761911</v>
       </c>
       <c r="F68" t="n">
-        <v>0.04000000000000054</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G68" t="n">
         <v>-1.570809523809524</v>
       </c>
       <c r="H68" t="n">
-        <v>-1.123190476190477</v>
+        <v>-1.123190476190476</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2563333333333331</v>
+        <v>0.2563333333333334</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.7152857142857145</v>
+        <v>-0.7152857142857141</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.2750952380952383</v>
+        <v>-0.2750952380952384</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.8346666666666662</v>
+        <v>-0.834666666666666</v>
       </c>
       <c r="M68" t="n">
-        <v>-2.034904761904762</v>
+        <v>-2.034904761904763</v>
       </c>
       <c r="N68" t="n">
         <v>-0.21</v>
@@ -39561,40 +39561,40 @@
         <v>1976</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.4776190476190472</v>
+        <v>-0.4776190476190474</v>
       </c>
       <c r="C69" t="n">
-        <v>-3.236666666666666</v>
+        <v>-3.236666666666667</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.1631198686371104</v>
+        <v>-0.1631198686371092</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6023809523809517</v>
+        <v>-0.6023809523809522</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.271428571428571</v>
+        <v>-1.271428571428572</v>
       </c>
       <c r="G69" t="n">
         <v>-1.482238095238095</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.791761904761905</v>
+        <v>-0.7917619047619048</v>
       </c>
       <c r="I69" t="n">
-        <v>0.159190476190476</v>
+        <v>0.1591904761904762</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.9267142857142857</v>
+        <v>-0.9267142857142854</v>
       </c>
       <c r="K69" t="n">
         <v>-1.242238095238096</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.531809523809524</v>
+        <v>-1.531809523809523</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.203476190476192</v>
+        <v>-0.2034761904761922</v>
       </c>
       <c r="N69" t="n">
         <v>-0.98</v>
@@ -39605,40 +39605,40 @@
         <v>1977</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.68047619047619</v>
+        <v>-1.680476190476191</v>
       </c>
       <c r="C70" t="n">
         <v>-1.53952380952381</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.1374055829228245</v>
+        <v>-0.1374055829228233</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.388095238095237</v>
+        <v>-0.3880952380952376</v>
       </c>
       <c r="F70" t="n">
         <v>-2.271428571428571</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3965238095238097</v>
+        <v>-0.3965238095238094</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4225238095238091</v>
+        <v>0.4225238095238093</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.3265238095238098</v>
+        <v>-0.3265238095238096</v>
       </c>
       <c r="J70" t="n">
         <v>-2.139571428571428</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.885095238095238</v>
+        <v>-0.8850952380952382</v>
       </c>
       <c r="L70" t="n">
-        <v>-1.088952380952381</v>
+        <v>-1.08895238095238</v>
       </c>
       <c r="M70" t="n">
-        <v>-1.717761904761905</v>
+        <v>-1.717761904761906</v>
       </c>
       <c r="N70" t="n">
         <v>-1.01</v>
@@ -39649,40 +39649,40 @@
         <v>1978</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.0519047619047619</v>
+        <v>-0.05190476190476215</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01761904761904758</v>
+        <v>0.01761904761904733</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2340229885057468</v>
+        <v>0.2340229885057481</v>
       </c>
       <c r="E71" t="n">
         <v>2.840476190476191</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.214285714285714</v>
+        <v>-0.2142857142857146</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6108095238095237</v>
+        <v>-0.6108095238095236</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6939523809523808</v>
+        <v>0.693952380952381</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.2693809523809526</v>
+        <v>-0.2693809523809523</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.02671428571428588</v>
+        <v>-0.0267142857142855</v>
       </c>
       <c r="K71" t="n">
         <v>-1.242238095238095</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.3603809523809521</v>
+        <v>-0.3603809523809519</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.489190476190477</v>
+        <v>-0.4891904761904772</v>
       </c>
       <c r="N71" t="n">
         <v>0.04</v>
@@ -39693,40 +39693,40 @@
         <v>1979</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.5519047619047617</v>
+        <v>-0.5519047619047619</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.9252380952380952</v>
+        <v>-0.9252380952380955</v>
       </c>
       <c r="D72" t="n">
-        <v>1.391165845648604</v>
+        <v>1.391165845648605</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.4452380952380942</v>
+        <v>-0.4452380952380948</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8428571428571424</v>
+        <v>-0.8428571428571429</v>
       </c>
       <c r="G72" t="n">
-        <v>0.003476190476190411</v>
+        <v>0.003476190476190601</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1653809523809521</v>
+        <v>0.1653809523809524</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.72652380952381</v>
+        <v>-0.7265238095238098</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1604285714285713</v>
+        <v>0.1604285714285717</v>
       </c>
       <c r="K72" t="n">
-        <v>0.01490476190476198</v>
+        <v>0.01490476190476185</v>
       </c>
       <c r="L72" t="n">
-        <v>0.7110476190476195</v>
+        <v>0.7110476190476198</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.43204761904762</v>
+        <v>-0.4320476190476202</v>
       </c>
       <c r="N72" t="n">
         <v>-0.12</v>
@@ -39737,40 +39737,40 @@
         <v>1980</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.466190476190476</v>
+        <v>-0.4661904761904762</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.5680952380952379</v>
+        <v>-0.5680952380952381</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.6945484400656822</v>
+        <v>-0.6945484400656809</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.4023809523809515</v>
+        <v>-0.4023809523809521</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.3999999999999994</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5965238095238095</v>
+        <v>-0.5965238095238092</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.3203333333333337</v>
+        <v>-0.3203333333333335</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.6836666666666671</v>
+        <v>-0.6836666666666668</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2175714285714285</v>
+        <v>0.2175714285714288</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6291904761904761</v>
+        <v>0.629190476190476</v>
       </c>
       <c r="L73" t="n">
         <v>-1.060380952380952</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.6606190476190482</v>
+        <v>-0.6606190476190485</v>
       </c>
       <c r="N73" t="n">
         <v>-0.42</v>
@@ -39781,16 +39781,16 @@
         <v>1981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3052380952380955</v>
+        <v>0.3052380952380953</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2747619047619051</v>
+        <v>0.2747619047619048</v>
       </c>
       <c r="D74" t="n">
-        <v>1.519737274220032</v>
+        <v>1.519737274220034</v>
       </c>
       <c r="E74" t="n">
-        <v>1.126190476190477</v>
+        <v>1.126190476190476</v>
       </c>
       <c r="F74" t="n">
         <v>-1.214285714285714</v>
@@ -39799,19 +39799,19 @@
         <v>1.032047619047619</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.006047619047619365</v>
+        <v>-0.006047619047619143</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.9550952380952383</v>
+        <v>-0.955095238095238</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.6824285714285717</v>
+        <v>-0.6824285714285713</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.08509523809523831</v>
+        <v>-0.08509523809523843</v>
       </c>
       <c r="L74" t="n">
-        <v>0.6539047619047622</v>
+        <v>0.6539047619047624</v>
       </c>
       <c r="M74" t="n">
         <v>1.382238095238094</v>
@@ -39825,37 +39825,37 @@
         <v>1982</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.6519047619047615</v>
+        <v>-0.6519047619047618</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01761904761904834</v>
+        <v>0.01761904761904809</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.1374055829228248</v>
+        <v>-0.1374055829228235</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.588095238095237</v>
+        <v>-1.588095238095238</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2285714285714281</v>
+        <v>-0.2285714285714286</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.9822380952380955</v>
+        <v>-0.9822380952380952</v>
       </c>
       <c r="H75" t="n">
-        <v>-1.220333333333334</v>
+        <v>-1.220333333333333</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.5265238095238096</v>
+        <v>-0.5265238095238094</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.6538571428571426</v>
+        <v>-0.6538571428571422</v>
       </c>
       <c r="K75" t="n">
         <v>-1.75652380952381</v>
       </c>
       <c r="L75" t="n">
-        <v>0.6967619047619052</v>
+        <v>0.6967619047619056</v>
       </c>
       <c r="M75" t="n">
         <v>-1.974904761904763</v>
@@ -39875,34 +39875,34 @@
         <v>-1.510952380952381</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.2945484400656819</v>
+        <v>-0.2945484400656806</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.4023809523809511</v>
+        <v>-0.4023809523809517</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5714285714285712</v>
+        <v>-0.5714285714285717</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2393809523809524</v>
+        <v>-0.2393809523809522</v>
       </c>
       <c r="H76" t="n">
         <v>-1.091761904761905</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.283666666666667</v>
+        <v>-0.2836666666666667</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1461428571428571</v>
+        <v>0.1461428571428575</v>
       </c>
       <c r="K76" t="n">
-        <v>0.7149047619047618</v>
+        <v>0.7149047619047616</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.1889523809523802</v>
+        <v>-0.1889523809523799</v>
       </c>
       <c r="M76" t="n">
-        <v>-1.146333333333334</v>
+        <v>-1.146333333333335</v>
       </c>
       <c r="N76" t="n">
         <v>-0.54</v>
@@ -39916,19 +39916,19 @@
         <v>-2.409047619047619</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.7680952380952378</v>
+        <v>-0.7680952380952382</v>
       </c>
       <c r="D77" t="n">
-        <v>1.362594417077176</v>
+        <v>1.362594417077177</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4166666666666657</v>
+        <v>-0.4166666666666664</v>
       </c>
       <c r="F77" t="n">
         <v>-1.514285714285714</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1463333333333335</v>
+        <v>0.1463333333333336</v>
       </c>
       <c r="H77" t="n">
         <v>1.093952380952381</v>
@@ -39937,16 +39937,16 @@
         <v>1.189190476190476</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.1967142857142857</v>
+        <v>-0.1967142857142853</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.5850952380952382</v>
+        <v>-0.5850952380952383</v>
       </c>
       <c r="L77" t="n">
         <v>1.125333333333334</v>
       </c>
       <c r="M77" t="n">
-        <v>0.7250952380952371</v>
+        <v>0.7250952380952368</v>
       </c>
       <c r="N77" t="n">
         <v>-0.02</v>
@@ -39957,40 +39957,40 @@
         <v>1985</v>
       </c>
       <c r="B78" t="n">
-        <v>1.062380952380953</v>
+        <v>1.062380952380952</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.5966666666666666</v>
+        <v>-0.5966666666666668</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.2374055829228247</v>
+        <v>-0.2374055829228234</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1166666666666655</v>
+        <v>-0.1166666666666661</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.7142857142857139</v>
+        <v>-0.7142857142857144</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6891904761904764</v>
+        <v>0.6891904761904766</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9939523809523804</v>
+        <v>0.9939523809523809</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.6550952380952385</v>
+        <v>-0.6550952380952381</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3032857142857143</v>
+        <v>0.3032857142857147</v>
       </c>
       <c r="K78" t="n">
         <v>-1.099380952380953</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.03180952380952323</v>
+        <v>-0.03180952380952297</v>
       </c>
       <c r="M78" t="n">
-        <v>1.025095238095238</v>
+        <v>1.025095238095237</v>
       </c>
       <c r="N78" t="n">
         <v>0.05</v>
@@ -40004,37 +40004,37 @@
         <v>1.490952380952381</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3176190476190478</v>
+        <v>0.3176190476190475</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.1231198686371105</v>
+        <v>-0.1231198686371093</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5833333333333345</v>
+        <v>0.5833333333333338</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.6857142857142856</v>
+        <v>-0.6857142857142861</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4679523809523811</v>
+        <v>-0.4679523809523808</v>
       </c>
       <c r="H79" t="n">
-        <v>-1.177476190476191</v>
+        <v>-1.17747619047619</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.8693809523809526</v>
+        <v>-0.8693809523809524</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.541</v>
+        <v>-0.5409999999999997</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9006190476190472</v>
+        <v>0.9006190476190471</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1396190476190482</v>
+        <v>0.1396190476190485</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.1034761904761911</v>
+        <v>-0.1034761904761913</v>
       </c>
       <c r="N79" t="n">
         <v>-0.04</v>
@@ -40045,40 +40045,40 @@
         <v>1987</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3623809523809522</v>
+        <v>0.3623809523809519</v>
       </c>
       <c r="C80" t="n">
         <v>-1.13952380952381</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.5374055829228249</v>
+        <v>-0.5374055829228236</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3595238095238086</v>
+        <v>-0.3595238095238092</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4142857142857149</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="G80" t="n">
-        <v>0.282047619047619</v>
+        <v>0.2820476190476192</v>
       </c>
       <c r="H80" t="n">
-        <v>0.08680952380952357</v>
+        <v>0.08680952380952379</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9234761904761901</v>
+        <v>0.9234761904761903</v>
       </c>
       <c r="J80" t="n">
-        <v>0.196142857142857</v>
+        <v>0.1961428571428574</v>
       </c>
       <c r="K80" t="n">
-        <v>0.1649047619047618</v>
+        <v>0.1649047619047617</v>
       </c>
       <c r="L80" t="n">
-        <v>0.4896190476190482</v>
+        <v>0.4896190476190485</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.2391904761904769</v>
+        <v>-0.2391904761904772</v>
       </c>
       <c r="N80" t="n">
         <v>0.05</v>
@@ -40089,40 +40089,40 @@
         <v>1988</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.7733333333333334</v>
+        <v>-0.7733333333333337</v>
       </c>
       <c r="C81" t="n">
-        <v>0.581904761904762</v>
+        <v>0.5819047619047618</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.101691297208539</v>
+        <v>-1.101691297208537</v>
       </c>
       <c r="E81" t="n">
         <v>-1.723809523809523</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.778571428571428</v>
+        <v>-1.778571428571429</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1534761904761905</v>
+        <v>0.1534761904761907</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8582380952380948</v>
+        <v>0.858238095238095</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2091904761904759</v>
+        <v>0.2091904761904762</v>
       </c>
       <c r="J81" t="n">
-        <v>1.366142857142857</v>
+        <v>1.366142857142858</v>
       </c>
       <c r="K81" t="n">
         <v>1.022047619047619</v>
       </c>
       <c r="L81" t="n">
-        <v>0.9610476190476195</v>
+        <v>0.9610476190476198</v>
       </c>
       <c r="M81" t="n">
-        <v>0.7322380952380946</v>
+        <v>0.7322380952380944</v>
       </c>
       <c r="N81" t="n">
         <v>0.04</v>
@@ -40133,40 +40133,40 @@
         <v>1989</v>
       </c>
       <c r="B82" t="n">
-        <v>1.26952380952381</v>
+        <v>1.269523809523809</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.2895238095238091</v>
+        <v>-0.2895238095238094</v>
       </c>
       <c r="D82" t="n">
-        <v>0.384022988505747</v>
+        <v>0.3840229885057482</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.3095238095238085</v>
+        <v>-0.3095238095238092</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2642857142857147</v>
+        <v>0.2642857142857142</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1465238095238095</v>
+        <v>-0.1465238095238093</v>
       </c>
       <c r="H82" t="n">
         <v>-1.141761904761905</v>
       </c>
       <c r="I82" t="n">
-        <v>0.5091904761904759</v>
+        <v>0.5091904761904761</v>
       </c>
       <c r="J82" t="n">
-        <v>0.7661428571428571</v>
+        <v>0.7661428571428575</v>
       </c>
       <c r="K82" t="n">
         <v>1.09347619047619</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8324761904761907</v>
+        <v>0.8324761904761909</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.5963333333333344</v>
+        <v>-0.5963333333333346</v>
       </c>
       <c r="N82" t="n">
         <v>0.22</v>
@@ -40177,40 +40177,40 @@
         <v>1990</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.3019047619047614</v>
+        <v>-0.3019047619047616</v>
       </c>
       <c r="C83" t="n">
         <v>1.096190476190476</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7268801313628901</v>
+        <v>0.7268801313628914</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3619047619047629</v>
+        <v>0.3619047619047623</v>
       </c>
       <c r="F83" t="n">
-        <v>0.07857142857142906</v>
+        <v>0.07857142857142854</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1750952380952382</v>
+        <v>-0.175095238095238</v>
       </c>
       <c r="H83" t="n">
-        <v>0.315380952380952</v>
+        <v>0.3153809523809522</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3377619047619048</v>
+        <v>0.337761904761905</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.8624285714285714</v>
+        <v>-0.862428571428571</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.007952380952381028</v>
+        <v>-0.007952380952381155</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2896190476190481</v>
+        <v>0.2896190476190483</v>
       </c>
       <c r="M83" t="n">
-        <v>0.08938095238095148</v>
+        <v>0.08938095238095123</v>
       </c>
       <c r="N83" t="n">
         <v>0.16</v>
@@ -40221,19 +40221,19 @@
         <v>1991</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.02619047619047597</v>
+        <v>-0.02619047619047623</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.6566666666666668</v>
+        <v>-0.6566666666666671</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1168801313628899</v>
+        <v>0.1168801313628912</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.6338095238095229</v>
+        <v>-0.6338095238095235</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.8171428571428568</v>
+        <v>-0.8171428571428574</v>
       </c>
       <c r="G84" t="n">
         <v>-1.042238095238095</v>
@@ -40242,19 +40242,19 @@
         <v>-1.023190476190476</v>
       </c>
       <c r="I84" t="n">
-        <v>0.7577619047619045</v>
+        <v>0.7577619047619046</v>
       </c>
       <c r="J84" t="n">
-        <v>0.7147142857142857</v>
+        <v>0.7147142857142861</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.4022380952380954</v>
+        <v>-0.4022380952380956</v>
       </c>
       <c r="L84" t="n">
-        <v>-1.363238095238095</v>
+        <v>-1.363238095238094</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.9063333333333341</v>
+        <v>-0.9063333333333343</v>
       </c>
       <c r="N84" t="n">
         <v>-0.44</v>
@@ -40265,40 +40265,40 @@
         <v>1992</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.3547619047619044</v>
+        <v>-0.3547619047619047</v>
       </c>
       <c r="C85" t="n">
         <v>-1.485238095238095</v>
       </c>
       <c r="D85" t="n">
-        <v>-2.225977011494253</v>
+        <v>-2.225977011494252</v>
       </c>
       <c r="E85" t="n">
-        <v>-2.490952380952379</v>
+        <v>-2.49095238095238</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.217142857142857</v>
+        <v>-2.217142857142858</v>
       </c>
       <c r="G85" t="n">
         <v>-1.499380952380952</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3482380952380948</v>
+        <v>0.3482380952380951</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.78652380952381</v>
+        <v>-0.7865238095238097</v>
       </c>
       <c r="J85" t="n">
         <v>-1.415285714285714</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.630809523809524</v>
+        <v>-0.6308095238095242</v>
       </c>
       <c r="L85" t="n">
-        <v>0.8510476190476196</v>
+        <v>0.8510476190476198</v>
       </c>
       <c r="M85" t="n">
-        <v>-0.6634761904761911</v>
+        <v>-0.6634761904761913</v>
       </c>
       <c r="N85" t="n">
         <v>-1.05</v>
@@ -40315,28 +40315,28 @@
         <v>-1.770952380952381</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.425977011494253</v>
+        <v>-1.425977011494252</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.09095238095238</v>
+        <v>-1.090952380952381</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4028571428571425</v>
+        <v>-0.402857142857143</v>
       </c>
       <c r="G86" t="n">
         <v>1.100619047619048</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.3089047619047622</v>
+        <v>-0.308904761904762</v>
       </c>
       <c r="I86" t="n">
         <v>-1.357952380952381</v>
       </c>
       <c r="J86" t="n">
-        <v>-1.129571428571429</v>
+        <v>-1.129571428571428</v>
       </c>
       <c r="K86" t="n">
-        <v>0.1263333333333333</v>
+        <v>0.1263333333333332</v>
       </c>
       <c r="L86" t="n">
         <v>-1.377523809523809</v>
@@ -40353,40 +40353,40 @@
         <v>1994</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.09761904761904715</v>
+        <v>-0.0976190476190474</v>
       </c>
       <c r="C87" t="n">
-        <v>0.04333333333333351</v>
+        <v>0.04333333333333326</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.9974055829228244</v>
+        <v>-0.9974055829228232</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.4766666666666657</v>
+        <v>-0.4766666666666663</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.2599999999999995</v>
+        <v>-0.2600000000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.5422380952380952</v>
+        <v>-0.5422380952380949</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.5946190476190478</v>
+        <v>-0.5946190476190477</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1420476190476188</v>
+        <v>0.142047619047619</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.7438571428571429</v>
+        <v>-0.7438571428571424</v>
       </c>
       <c r="K87" t="n">
         <v>-1.287952380952381</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.2489523809523807</v>
+        <v>-0.2489523809523804</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.7206190476190485</v>
+        <v>-0.7206190476190487</v>
       </c>
       <c r="N87" t="n">
         <v>-0.48</v>
@@ -40397,37 +40397,37 @@
         <v>1995</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.5833333333333329</v>
+        <v>-0.5833333333333331</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4004761904761909</v>
+        <v>0.4004761904761907</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.1259770114942533</v>
+        <v>-0.1259770114942521</v>
       </c>
       <c r="E88" t="n">
-        <v>1.751904761904763</v>
+        <v>1.751904761904762</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.01714285714285678</v>
+        <v>-0.01714285714285729</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3006190476190476</v>
+        <v>0.3006190476190478</v>
       </c>
       <c r="H88" t="n">
-        <v>-1.080333333333334</v>
+        <v>-1.080333333333333</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.5293809523809527</v>
+        <v>-0.5293809523809524</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.04385714285714278</v>
+        <v>-0.04385714285714241</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.05938095238095225</v>
+        <v>-0.05938095238095237</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.7489523809523805</v>
+        <v>-0.7489523809523801</v>
       </c>
       <c r="M88" t="n">
         <v>1.036523809523809</v>
@@ -40441,16 +40441,16 @@
         <v>1996</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5166666666666665</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.02809523809523817</v>
+        <v>-0.02809523809523843</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.9259770114942535</v>
+        <v>-0.9259770114942523</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9376190476190488</v>
+        <v>0.9376190476190481</v>
       </c>
       <c r="F89" t="n">
         <v>-1.131428571428571</v>
@@ -40459,16 +40459,16 @@
         <v>-1.170809523809524</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3339523809523806</v>
+        <v>0.3339523809523808</v>
       </c>
       <c r="I89" t="n">
         <v>-1.015095238095238</v>
       </c>
       <c r="J89" t="n">
-        <v>0.9704285714285713</v>
+        <v>0.9704285714285718</v>
       </c>
       <c r="K89" t="n">
-        <v>0.4263333333333335</v>
+        <v>0.4263333333333334</v>
       </c>
       <c r="L89" t="n">
         <v>-1.020380952380952</v>
@@ -40488,34 +40488,34 @@
         <v>-1.419047619047619</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2933333333333333</v>
+        <v>0.293333333333333</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.6331198686371106</v>
+        <v>-0.6331198686371093</v>
       </c>
       <c r="E90" t="n">
         <v>-1.069523809523809</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4900000000000005</v>
+        <v>0.4899999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.8250952380952381</v>
+        <v>-0.8250952380952379</v>
       </c>
       <c r="H90" t="n">
         <v>-1.320333333333334</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.5122380952380955</v>
+        <v>-0.5122380952380953</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.8195714285714287</v>
+        <v>-0.8195714285714283</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.09509523809523797</v>
+        <v>-0.09509523809523809</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.05466666666666585</v>
+        <v>-0.05466666666666559</v>
       </c>
       <c r="M90" t="n">
         <v>-1.083476190476192</v>
@@ -40529,40 +40529,40 @@
         <v>1998</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2538095238095237</v>
+        <v>0.2538095238095234</v>
       </c>
       <c r="C91" t="n">
         <v>2.023333333333334</v>
       </c>
       <c r="D91" t="n">
-        <v>1.182594417077176</v>
+        <v>1.182594417077177</v>
       </c>
       <c r="E91" t="n">
-        <v>0.03190476190476271</v>
+        <v>0.03190476190476207</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3914285714285717</v>
+        <v>0.3914285714285712</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1949047619047619</v>
+        <v>0.1949047619047621</v>
       </c>
       <c r="H91" t="n">
-        <v>1.71395238095238</v>
+        <v>1.713952380952381</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.4565238095238098</v>
+        <v>-0.4565238095238096</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2432857142857139</v>
+        <v>0.2432857142857143</v>
       </c>
       <c r="K91" t="n">
         <v>1.254904761904762</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06676190476190566</v>
+        <v>0.06676190476190591</v>
       </c>
       <c r="M91" t="n">
-        <v>0.180809523809523</v>
+        <v>0.1808095238095227</v>
       </c>
       <c r="N91" t="n">
         <v>0.59</v>
@@ -40576,37 +40576,37 @@
         <v>1.532380952380952</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4304761904761905</v>
+        <v>0.4304761904761903</v>
       </c>
       <c r="D92" t="n">
-        <v>1.918308702791461</v>
+        <v>1.918308702791462</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1533333333333347</v>
+        <v>0.1533333333333341</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5271428571428575</v>
+        <v>0.5271428571428569</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2122380952380952</v>
+        <v>-0.212238095238095</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3210952380952377</v>
+        <v>0.3210952380952379</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.513666666666667</v>
+        <v>-0.5136666666666667</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1875714285714284</v>
+        <v>0.1875714285714288</v>
       </c>
       <c r="K92" t="n">
         <v>1.369190476190476</v>
       </c>
       <c r="L92" t="n">
-        <v>1.281047619047619</v>
+        <v>1.28104761904762</v>
       </c>
       <c r="M92" t="n">
-        <v>-1.033476190476191</v>
+        <v>-1.033476190476192</v>
       </c>
       <c r="N92" t="n">
         <v>0.5</v>
@@ -40617,40 +40617,40 @@
         <v>2000</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.4290476190476191</v>
+        <v>-0.4290476190476194</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.2309523809523808</v>
+        <v>-0.230952380952381</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.4574055829228248</v>
+        <v>-0.4574055829228235</v>
       </c>
       <c r="E93" t="n">
-        <v>0.44904761904762</v>
+        <v>0.4490476190476193</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4228571428571434</v>
+        <v>0.4228571428571429</v>
       </c>
       <c r="G93" t="n">
-        <v>0.6834761904761905</v>
+        <v>0.6834761904761907</v>
       </c>
       <c r="H93" t="n">
-        <v>1.416809523809523</v>
+        <v>1.416809523809524</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.4179523809523813</v>
+        <v>-0.417952380952381</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.0610000000000002</v>
+        <v>-0.06099999999999982</v>
       </c>
       <c r="K93" t="n">
-        <v>0.1806190476190476</v>
+        <v>0.1806190476190475</v>
       </c>
       <c r="L93" t="n">
-        <v>-1.823238095238095</v>
+        <v>-1.823238095238094</v>
       </c>
       <c r="M93" t="n">
-        <v>0.790809523809523</v>
+        <v>0.7908095238095226</v>
       </c>
       <c r="N93" t="n">
         <v>0.04</v>
@@ -40664,34 +40664,34 @@
         <v>-1.600476190476191</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1261904761904764</v>
+        <v>0.1261904761904761</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.1002627257799679</v>
+        <v>-0.1002627257799666</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.4938095238095227</v>
+        <v>-0.4938095238095234</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6085714285714292</v>
+        <v>0.6085714285714287</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5736666666666667</v>
+        <v>-0.5736666666666663</v>
       </c>
       <c r="H94" t="n">
         <v>-1.768904761904762</v>
       </c>
       <c r="I94" t="n">
-        <v>0.4534761904761903</v>
+        <v>0.4534761904761905</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3247142857142857</v>
+        <v>0.3247142857142861</v>
       </c>
       <c r="K94" t="n">
         <v>1.637761904761905</v>
       </c>
       <c r="L94" t="n">
-        <v>0.8767619047619053</v>
+        <v>0.8767619047619055</v>
       </c>
       <c r="M94" t="n">
         <v>1.34795238095238</v>
@@ -40705,40 +40705,40 @@
         <v>2002</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2852380952380954</v>
+        <v>0.2852380952380952</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.8452380952380951</v>
+        <v>-0.8452380952380955</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2997372742200322</v>
+        <v>0.2997372742200334</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.1080952380952368</v>
+        <v>-0.1080952380952375</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1085714285714289</v>
+        <v>0.1085714285714284</v>
       </c>
       <c r="G95" t="n">
-        <v>1.38347619047619</v>
+        <v>1.383476190476191</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1025238095238092</v>
+        <v>0.1025238095238094</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1249047619047616</v>
+        <v>0.1249047619047619</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2832857142857143</v>
+        <v>0.2832857142857146</v>
       </c>
       <c r="K95" t="n">
         <v>-1.619380952380953</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.6518095238095232</v>
+        <v>-0.651809523809523</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.1520476190476199</v>
+        <v>-0.1520476190476201</v>
       </c>
       <c r="N95" t="n">
         <v>-0.07000000000000001</v>
@@ -40749,40 +40749,40 @@
         <v>2003</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.9861904761904761</v>
+        <v>-0.9861904761904763</v>
       </c>
       <c r="C96" t="n">
         <v>-1.188095238095238</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8568801313628897</v>
+        <v>0.8568801313628909</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.5080952380952369</v>
+        <v>-0.5080952380952376</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1657142857142861</v>
+        <v>0.1657142857142856</v>
       </c>
       <c r="G96" t="n">
-        <v>1.340619047619047</v>
+        <v>1.340619047619048</v>
       </c>
       <c r="H96" t="n">
         <v>-1.426047619047619</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.1022380952380953</v>
+        <v>-0.102238095238095</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05328571428571406</v>
+        <v>0.05328571428571444</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.7765238095238096</v>
+        <v>-0.7765238095238097</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.7946666666666662</v>
+        <v>-0.794666666666666</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.1520476190476201</v>
+        <v>-0.1520476190476204</v>
       </c>
       <c r="N96" t="n">
         <v>-0.29</v>
@@ -40796,34 +40796,34 @@
         <v>1.056666666666667</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.788095238095238</v>
+        <v>-0.7880952380952382</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.171691297208539</v>
+        <v>-1.171691297208538</v>
       </c>
       <c r="E97" t="n">
         <v>-1.236666666666666</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7657142857142862</v>
+        <v>0.7657142857142858</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8834761904761905</v>
+        <v>0.8834761904761909</v>
       </c>
       <c r="H97" t="n">
         <v>-1.240333333333334</v>
       </c>
       <c r="I97" t="n">
-        <v>-1.089380952380953</v>
+        <v>-1.089380952380952</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.9167142857142857</v>
+        <v>-0.9167142857142855</v>
       </c>
       <c r="K97" t="n">
-        <v>0.1377619047619045</v>
+        <v>0.1377619047619044</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5053333333333336</v>
+        <v>0.5053333333333339</v>
       </c>
       <c r="M97" t="n">
         <v>-2.237761904761906</v>
@@ -40837,40 +40837,40 @@
         <v>2005</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1861904761904761</v>
+        <v>-0.1861904761904764</v>
       </c>
       <c r="C98" t="n">
         <v>1.297619047619048</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5568801313628897</v>
+        <v>0.5568801313628909</v>
       </c>
       <c r="E98" t="n">
-        <v>-1.05095238095238</v>
+        <v>-1.050952380952381</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4800000000000004</v>
+        <v>0.4799999999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.487952380952381</v>
+        <v>-0.4879523809523807</v>
       </c>
       <c r="H98" t="n">
         <v>1.388238095238095</v>
       </c>
       <c r="I98" t="n">
-        <v>0.4820476190476188</v>
+        <v>0.4820476190476191</v>
       </c>
       <c r="J98" t="n">
-        <v>0.5290000000000001</v>
+        <v>0.5290000000000006</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.08938095238095249</v>
+        <v>-0.08938095238095263</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.1346666666666662</v>
+        <v>-0.1346666666666659</v>
       </c>
       <c r="M98" t="n">
-        <v>1.936523809523809</v>
+        <v>1.936523809523808</v>
       </c>
       <c r="N98" t="n">
         <v>0.39</v>
@@ -40881,37 +40881,37 @@
         <v>2006</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.5404761904761904</v>
+        <v>-0.5404761904761907</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0004761904761908044</v>
+        <v>0.0004761904761905506</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.297405582922825</v>
+        <v>-1.297405582922823</v>
       </c>
       <c r="E99" t="n">
         <v>1.494761904761905</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2542857142857146</v>
+        <v>0.2542857142857141</v>
       </c>
       <c r="G99" t="n">
         <v>-1.899380952380952</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.0374761904761907</v>
+        <v>-0.03747619047619048</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.2136666666666668</v>
+        <v>-0.2136666666666665</v>
       </c>
       <c r="J99" t="n">
-        <v>0.7989999999999998</v>
+        <v>0.7990000000000003</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.160809523809524</v>
+        <v>-0.1608095238095242</v>
       </c>
       <c r="L99" t="n">
-        <v>0.008190476190476683</v>
+        <v>0.008190476190476938</v>
       </c>
       <c r="M99" t="n">
         <v>-2.09204761904762</v>
@@ -40925,40 +40925,40 @@
         <v>2007</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.226190476190476</v>
+        <v>-0.2261904761904763</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3995238095238093</v>
+        <v>-0.3995238095238096</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6168801313628897</v>
+        <v>0.616880131362891</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.6480952380952371</v>
+        <v>-0.6480952380952376</v>
       </c>
       <c r="F100" t="n">
-        <v>0.982857142857143</v>
+        <v>0.9828571428571424</v>
       </c>
       <c r="G100" t="n">
         <v>-1.042238095238095</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2053809523809521</v>
+        <v>0.2053809523809523</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.1150952380952384</v>
+        <v>-0.1150952380952382</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.1138571428571431</v>
+        <v>-0.1138571428571427</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.6750952380952382</v>
+        <v>-0.6750952380952383</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.6918095238095233</v>
+        <v>-0.6918095238095231</v>
       </c>
       <c r="M100" t="n">
-        <v>0.4793809523809513</v>
+        <v>0.479380952380951</v>
       </c>
       <c r="N100" t="n">
         <v>-0.14</v>
@@ -40969,40 +40969,40 @@
         <v>2008</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8880952380952384</v>
+        <v>0.8880952380952382</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2290476190476196</v>
+        <v>0.2290476190476193</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7883087027914613</v>
+        <v>0.7883087027914625</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2661904761904771</v>
+        <v>0.2661904761904764</v>
       </c>
       <c r="F101" t="n">
         <v>-1.817142857142857</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1422380952380951</v>
+        <v>-0.1422380952380949</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6196666666666665</v>
+        <v>0.6196666666666667</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.2722380952380955</v>
+        <v>-0.2722380952380953</v>
       </c>
       <c r="J101" t="n">
-        <v>0.586142857142857</v>
+        <v>0.5861428571428574</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.4179523809523809</v>
+        <v>-0.417952380952381</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2653333333333334</v>
+        <v>0.2653333333333337</v>
       </c>
       <c r="M101" t="n">
-        <v>0.09366666666666593</v>
+        <v>0.09366666666666568</v>
       </c>
       <c r="N101" t="n">
         <v>0.09</v>
@@ -41013,40 +41013,40 @@
         <v>2009</v>
       </c>
       <c r="B102" t="n">
-        <v>0.07380952380952419</v>
+        <v>0.07380952380952392</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1719047619047619</v>
+        <v>0.1719047619047616</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.7545484400656817</v>
+        <v>-0.7545484400656804</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0661904761904774</v>
+        <v>0.06619047619047677</v>
       </c>
       <c r="F102" t="n">
         <v>-2.16</v>
       </c>
       <c r="G102" t="n">
-        <v>-1.013666666666667</v>
+        <v>-1.013666666666666</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.6803333333333336</v>
+        <v>-0.6803333333333335</v>
       </c>
       <c r="I102" t="n">
-        <v>1.384904761904761</v>
+        <v>1.384904761904762</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.4581428571428571</v>
+        <v>-0.4581428571428567</v>
       </c>
       <c r="K102" t="n">
         <v>-1.332238095238095</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.1060952380952377</v>
+        <v>-0.1060952380952375</v>
       </c>
       <c r="M102" t="n">
-        <v>-0.5063333333333342</v>
+        <v>-0.5063333333333345</v>
       </c>
       <c r="N102" t="n">
         <v>-0.44</v>
@@ -41057,37 +41057,37 @@
         <v>2010</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.08333333333333316</v>
+        <v>-0.08333333333333341</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4004761904761904</v>
+        <v>0.4004761904761902</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.225977011494253</v>
+        <v>-0.2259770114942517</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7233333333333345</v>
+        <v>0.7233333333333338</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5971428571428575</v>
+        <v>0.597142857142857</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1720476190476189</v>
+        <v>0.1720476190476191</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.6231904761904765</v>
+        <v>-0.6231904761904763</v>
       </c>
       <c r="I103" t="n">
         <v>1.099190476190476</v>
       </c>
       <c r="J103" t="n">
-        <v>0.5418571428571427</v>
+        <v>0.5418571428571431</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.6879523809523809</v>
+        <v>-0.687952380952381</v>
       </c>
       <c r="L103" t="n">
-        <v>0.9367619047619051</v>
+        <v>0.9367619047619054</v>
       </c>
       <c r="M103" t="n">
         <v>1.550809523809523</v>
@@ -41101,40 +41101,40 @@
         <v>2011</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3880952380952384</v>
+        <v>0.3880952380952381</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6861904761904766</v>
+        <v>0.6861904761904764</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.2545484400656822</v>
+        <v>-0.2545484400656809</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.2623809523809515</v>
+        <v>-0.2623809523809522</v>
       </c>
       <c r="F104" t="n">
-        <v>2.097142857142858</v>
+        <v>2.097142857142857</v>
       </c>
       <c r="G104" t="n">
         <v>1.514904761904762</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.2803333333333336</v>
+        <v>-0.2803333333333334</v>
       </c>
       <c r="I104" t="n">
-        <v>-1.343666666666667</v>
+        <v>-1.343666666666666</v>
       </c>
       <c r="J104" t="n">
-        <v>-1.215285714285715</v>
+        <v>-1.215285714285714</v>
       </c>
       <c r="K104" t="n">
-        <v>0.5834761904761905</v>
+        <v>0.5834761904761904</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.03466666666666602</v>
+        <v>-0.03466666666666577</v>
       </c>
       <c r="M104" t="n">
-        <v>0.4079523809523798</v>
+        <v>0.4079523809523796</v>
       </c>
       <c r="N104" t="n">
         <v>0.19</v>
@@ -41145,40 +41145,40 @@
         <v>2012</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.8119047619047619</v>
+        <v>-0.8119047619047622</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.3423809523809518</v>
+        <v>-0.3423809523809521</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.111691297208539</v>
+        <v>-1.111691297208538</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.2052380952380942</v>
+        <v>-0.2052380952380948</v>
       </c>
       <c r="F105" t="n">
         <v>-1.174285714285714</v>
       </c>
       <c r="G105" t="n">
-        <v>-1.113666666666667</v>
+        <v>-1.113666666666666</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2625238095238093</v>
+        <v>0.2625238095238095</v>
       </c>
       <c r="I105" t="n">
         <v>1.399190476190476</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1704285714285714</v>
+        <v>0.1704285714285718</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.4322380952380953</v>
+        <v>-0.4322380952380954</v>
       </c>
       <c r="L105" t="n">
         <v>-1.091809523809523</v>
       </c>
       <c r="M105" t="n">
-        <v>0.8793809523809519</v>
+        <v>0.8793809523809516</v>
       </c>
       <c r="N105" t="n">
         <v>-0.3</v>
@@ -41189,40 +41189,40 @@
         <v>2013</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.5547619047619045</v>
+        <v>-0.5547619047619047</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.7280952380952377</v>
+        <v>-0.728095238095238</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6454515599343181</v>
+        <v>0.6454515599343195</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9661904761904773</v>
+        <v>0.9661904761904766</v>
       </c>
       <c r="F106" t="n">
-        <v>0.04000000000000029</v>
+        <v>0.03999999999999978</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5863333333333335</v>
+        <v>0.5863333333333338</v>
       </c>
       <c r="H106" t="n">
-        <v>0.6768095238095235</v>
+        <v>0.6768095238095236</v>
       </c>
       <c r="I106" t="n">
         <v>1.81347619047619</v>
       </c>
       <c r="J106" t="n">
-        <v>0.3718571428571428</v>
+        <v>0.3718571428571432</v>
       </c>
       <c r="K106" t="n">
-        <v>0.6263333333333331</v>
+        <v>0.626333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>1.408190476190477</v>
       </c>
       <c r="M106" t="n">
-        <v>0.6079523809523801</v>
+        <v>0.6079523809523799</v>
       </c>
       <c r="N106" t="n">
         <v>0.54</v>
@@ -41236,37 +41236,37 @@
         <v>-1.169047619047619</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.1138095238095233</v>
+        <v>-0.1138095238095236</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.6402627257799678</v>
+        <v>-0.6402627257799666</v>
       </c>
       <c r="E107" t="n">
         <v>1.766190476190477</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.131428571428571</v>
+        <v>-0.1314285714285715</v>
       </c>
       <c r="G107" t="n">
-        <v>1.457761904761904</v>
+        <v>1.457761904761905</v>
       </c>
       <c r="H107" t="n">
-        <v>0.148238095238095</v>
+        <v>0.1482380952380952</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.5008095238095241</v>
+        <v>-0.5008095238095239</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04328571428571427</v>
+        <v>0.04328571428571466</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.4165238095238096</v>
+        <v>-0.4165238095238098</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.6060952380952376</v>
+        <v>-0.6060952380952374</v>
       </c>
       <c r="M107" t="n">
-        <v>0.3079523809523797</v>
+        <v>0.3079523809523795</v>
       </c>
       <c r="N107" t="n">
         <v>0.01</v>
@@ -41277,40 +41277,40 @@
         <v>2015</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5166666666666669</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.8280952380952381</v>
+        <v>-0.8280952380952383</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9740229885057469</v>
+        <v>0.9740229885057481</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9090476190476198</v>
+        <v>0.9090476190476192</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.5171428571428568</v>
+        <v>-0.5171428571428572</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.1708095238095239</v>
+        <v>-0.1708095238095237</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.4089047619047623</v>
+        <v>-0.4089047619047621</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.3436666666666668</v>
+        <v>-0.3436666666666666</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.8724285714285716</v>
+        <v>-0.8724285714285712</v>
       </c>
       <c r="K108" t="n">
-        <v>0.04061904761904727</v>
+        <v>0.04061904761904715</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.3918095238095232</v>
+        <v>-0.3918095238095229</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.6491904761904769</v>
+        <v>-0.6491904761904771</v>
       </c>
       <c r="N108" t="n">
         <v>-0.15</v>
@@ -41321,40 +41321,40 @@
         <v>2016</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7880952380952385</v>
+        <v>0.7880952380952382</v>
       </c>
       <c r="C109" t="n">
         <v>1.829047619047619</v>
       </c>
       <c r="D109" t="n">
-        <v>1.074022988505746</v>
+        <v>1.074022988505748</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1090476190476199</v>
+        <v>0.1090476190476192</v>
       </c>
       <c r="F109" t="n">
-        <v>1.982857142857144</v>
+        <v>1.982857142857143</v>
       </c>
       <c r="G109" t="n">
         <v>1.114904761904762</v>
       </c>
       <c r="H109" t="n">
-        <v>0.205380952380952</v>
+        <v>0.2053809523809522</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.943666666666667</v>
+        <v>-0.9436666666666668</v>
       </c>
       <c r="J109" t="n">
         <v>1.014714285714286</v>
       </c>
       <c r="K109" t="n">
-        <v>0.7820476190476187</v>
+        <v>0.7820476190476185</v>
       </c>
       <c r="L109" t="n">
-        <v>0.7224761904761907</v>
+        <v>0.7224761904761909</v>
       </c>
       <c r="M109" t="n">
-        <v>-0.6206190476190486</v>
+        <v>-0.6206190476190488</v>
       </c>
       <c r="N109" t="n">
         <v>0.67</v>
@@ -41365,37 +41365,37 @@
         <v>2017</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.7976190476190474</v>
+        <v>-0.7976190476190477</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.3423809523809518</v>
+        <v>-0.3423809523809521</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6740229885057468</v>
+        <v>0.6740229885057482</v>
       </c>
       <c r="E110" t="n">
-        <v>1.037619047619049</v>
+        <v>1.037619047619048</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.7171428571428565</v>
+        <v>-0.7171428571428571</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.1422380952380951</v>
+        <v>-0.1422380952380949</v>
       </c>
       <c r="H110" t="n">
-        <v>0.01966666666666647</v>
+        <v>0.01966666666666669</v>
       </c>
       <c r="I110" t="n">
-        <v>1.286333333333333</v>
+        <v>1.286333333333334</v>
       </c>
       <c r="J110" t="n">
         <v>1.071857142857143</v>
       </c>
       <c r="K110" t="n">
-        <v>0.9406190476190474</v>
+        <v>0.9406190476190472</v>
       </c>
       <c r="L110" t="n">
-        <v>0.9367619047619055</v>
+        <v>0.9367619047619058</v>
       </c>
       <c r="M110" t="n">
         <v>1.60795238095238</v>
@@ -41412,34 +41412,34 @@
         <v>3.430952380952381</v>
       </c>
       <c r="C111" t="n">
-        <v>1.057619047619048</v>
+        <v>1.057619047619047</v>
       </c>
       <c r="D111" t="n">
-        <v>1.416880131362889</v>
+        <v>1.416880131362891</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.04809523809523712</v>
+        <v>-0.04809523809523775</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2400000000000004</v>
+        <v>0.2399999999999998</v>
       </c>
       <c r="G111" t="n">
-        <v>0.05776190476190487</v>
+        <v>0.05776190476190506</v>
       </c>
       <c r="H111" t="n">
-        <v>0.7339523809523806</v>
+        <v>0.7339523809523809</v>
       </c>
       <c r="I111" t="n">
-        <v>0.7420476190476187</v>
+        <v>0.742047619047619</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.1567142857142856</v>
+        <v>-0.1567142857142853</v>
       </c>
       <c r="K111" t="n">
-        <v>0.1677619047619045</v>
+        <v>0.1677619047619044</v>
       </c>
       <c r="L111" t="n">
-        <v>0.5939047619047624</v>
+        <v>0.5939047619047626</v>
       </c>
       <c r="M111" t="n">
         <v>1.493666666666666</v>
@@ -41453,40 +41453,40 @@
         <v>2019</v>
       </c>
       <c r="B112" t="n">
-        <v>1.530952380952382</v>
+        <v>1.530952380952381</v>
       </c>
       <c r="C112" t="n">
-        <v>0.01476190476190504</v>
+        <v>0.01476190476190479</v>
       </c>
       <c r="D112" t="n">
-        <v>1.912222222222222</v>
+        <v>1.912222222222223</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.1338095238095227</v>
+        <v>-0.1338095238095233</v>
       </c>
       <c r="F112" t="n">
         <v>1.282857142857143</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.3136666666666664</v>
+        <v>-0.3136666666666663</v>
       </c>
       <c r="H112" t="n">
-        <v>1.719666666666666</v>
+        <v>1.719666666666667</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.1993809523809525</v>
+        <v>-0.1993809523809522</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.1867142857142859</v>
+        <v>-0.1867142857142855</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.2736666666666667</v>
+        <v>-0.2736666666666668</v>
       </c>
       <c r="L112" t="n">
         <v>1.522476190476191</v>
       </c>
       <c r="M112" t="n">
-        <v>0.09366666666666568</v>
+        <v>0.09366666666666543</v>
       </c>
       <c r="N112" t="n">
         <v>0.58</v>
@@ -41497,31 +41497,31 @@
         <v>2020</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1166666666666674</v>
+        <v>0.1166666666666671</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7433333333333335</v>
+        <v>0.7433333333333333</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.4116912972085395</v>
+        <v>-0.4116912972085383</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.2052380952380942</v>
+        <v>-0.2052380952380948</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.07428571428571372</v>
+        <v>-0.07428571428571422</v>
       </c>
       <c r="G113" t="n">
         <v>1.400619047619048</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5768095238095235</v>
+        <v>0.5768095238095238</v>
       </c>
       <c r="I113" t="n">
         <v>1.027761904761905</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2275714285714283</v>
+        <v>0.2275714285714287</v>
       </c>
       <c r="K113" t="n">
         <v>1.08347619047619</v>
@@ -41530,7 +41530,7 @@
         <v>1.165333333333334</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03652380952380848</v>
+        <v>0.03652380952380823</v>
       </c>
       <c r="N113" t="n">
         <v>0.47</v>
@@ -41541,31 +41541,31 @@
         <v>2021</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1452380952380954</v>
+        <v>0.1452380952380951</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.485238095238095</v>
+        <v>-0.4852380952380952</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5740229885057462</v>
+        <v>0.5740229885057475</v>
       </c>
       <c r="E114" t="n">
-        <v>0.40904761904762</v>
+        <v>0.4090476190476194</v>
       </c>
       <c r="F114" t="n">
-        <v>0.08285714285714312</v>
+        <v>0.08285714285714262</v>
       </c>
       <c r="G114" t="n">
         <v>2.229190476190476</v>
       </c>
       <c r="H114" t="n">
-        <v>0.7339523809523806</v>
+        <v>0.7339523809523809</v>
       </c>
       <c r="I114" t="n">
         <v>1.027761904761905</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02757142857142814</v>
+        <v>0.02757142857142852</v>
       </c>
       <c r="K114" t="n">
         <v>1.48347619047619</v>
@@ -41585,16 +41585,16 @@
         <v>2022</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8023809523809524</v>
+        <v>0.8023809523809522</v>
       </c>
       <c r="C115" t="n">
         <v>1.043333333333333</v>
       </c>
       <c r="D115" t="n">
-        <v>1.31688013136289</v>
+        <v>1.316880131362891</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7519047619047632</v>
+        <v>0.7519047619047626</v>
       </c>
       <c r="F115" t="n">
         <v>1.182857142857143</v>
@@ -41609,10 +41609,10 @@
         <v>1.527761904761905</v>
       </c>
       <c r="J115" t="n">
-        <v>0.4561428571428567</v>
+        <v>0.4561428571428571</v>
       </c>
       <c r="K115" t="n">
-        <v>-0.08795238095238135</v>
+        <v>-0.08795238095238148</v>
       </c>
       <c r="L115" t="n">
         <v>1.979619047619048</v>
@@ -41632,16 +41632,16 @@
         <v>1.402380952380953</v>
       </c>
       <c r="C116" t="n">
-        <v>1.271904761904762</v>
+        <v>1.271904761904761</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.02597701149425369</v>
+        <v>-0.02597701149425242</v>
       </c>
       <c r="E116" t="n">
-        <v>1.366190476190477</v>
+        <v>1.366190476190476</v>
       </c>
       <c r="F116" t="n">
-        <v>2.468571428571429</v>
+        <v>2.468571428571428</v>
       </c>
       <c r="G116" t="n">
         <v>1.314904761904762</v>
@@ -41650,16 +41650,16 @@
         <v>1.105380952380952</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.9293809523809526</v>
+        <v>-0.9293809523809523</v>
       </c>
       <c r="J116" t="n">
         <v>1.341857142857143</v>
       </c>
       <c r="K116" t="n">
-        <v>-0.0165238095238098</v>
+        <v>-0.01652380952380992</v>
       </c>
       <c r="L116" t="n">
-        <v>0.4796190476190482</v>
+        <v>0.4796190476190484</v>
       </c>
       <c r="M116" t="n">
         <v>1.336523809523808</v>
@@ -41676,13 +41676,13 @@
         <v>1.002380952380953</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.4423809523809525</v>
+        <v>-0.4423809523809528</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.125977011494254</v>
+        <v>-1.125977011494253</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3376190476190487</v>
+        <v>0.337619047619048</v>
       </c>
       <c r="F117" t="n">
         <v>-1.702857142857143</v>
@@ -41694,13 +41694,13 @@
         <v>1.076809523809523</v>
       </c>
       <c r="I117" t="n">
-        <v>0.6849047619047616</v>
+        <v>0.6849047619047618</v>
       </c>
       <c r="J117" t="n">
-        <v>0.4132857142857141</v>
+        <v>0.4132857142857145</v>
       </c>
       <c r="K117" t="n">
-        <v>0.7691904761904756</v>
+        <v>0.7691904761904755</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>

--- a/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMin_rounded_all_sites_all.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5576,10 +5576,36 @@
       <c r="K117" t="n">
         <v>0.43</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.21</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -5593,7 +5619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10680,10 +10706,36 @@
       <c r="K117" t="n">
         <v>0.8</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.62</v>
+      </c>
       <c r="N117" t="n">
-        <v>-0.06</v>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.68</v>
       </c>
     </row>
   </sheetData>
@@ -10697,7 +10749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15866,10 +15918,36 @@
       <c r="K117" t="n">
         <v>0.92</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.48</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.35</v>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.26</v>
       </c>
     </row>
   </sheetData>
@@ -15883,7 +15961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21052,10 +21130,36 @@
       <c r="K117" t="n">
         <v>0.85</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.73</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -21069,7 +21173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26144,11 +26248,31 @@
       <c r="K117" t="n">
         <v>0.67</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.49</v>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.08</v>
-      </c>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26161,7 +26285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31330,10 +31454,36 @@
       <c r="K117" t="n">
         <v>0.72</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.24</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.13</v>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -31347,7 +31497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36516,10 +36666,36 @@
       <c r="K117" t="n">
         <v>1</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.65</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -36533,7 +36709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41702,10 +41878,36 @@
       <c r="K117" t="n">
         <v>0.7691904761904755</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.165333333333334</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.489277777777776</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.6633333333333326</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -41719,7 +41921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46888,10 +47090,36 @@
       <c r="K117" t="n">
         <v>0.77</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.49</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
